--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96622772-07F5-444E-93EE-BD7BDDFD761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DDD513-5851-4B49-90B4-ADC8AB109BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="3732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7632" uniqueCount="3737">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11221,6 +11221,21 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan, Thiên Hỉ, Thiên Mã đồng cung tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan đồng cung tại Thiên Di gặp Thiên Hỷ, Thiên Mã</t>
+  </si>
+  <si>
+    <t>Phục Binh, Địa Không, Địa Kiếp đồng cung tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Thiên Tướng, Phục Binh đồng cung tại Thiên Di gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Lưu Hà, Kiếp Sát đồng cung tại Thiên Di</t>
   </si>
 </sst>
 </file>
@@ -11759,10 +11774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3812"/>
+  <dimension ref="A1:B3818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1655" workbookViewId="0">
-      <selection activeCell="P1664" sqref="P1664"/>
+    <sheetView tabSelected="1" topLeftCell="A3794" workbookViewId="0">
+      <selection activeCell="K3812" sqref="K3812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42256,6 +42271,46 @@
       </c>
       <c r="B3812" t="s">
         <v>3610</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>3736</v>
       </c>
     </row>
   </sheetData>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DDD513-5851-4B49-90B4-ADC8AB109BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC660D1-88CA-48A7-ADB9-0CE72F59E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7632" uniqueCount="3737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7686" uniqueCount="3764">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11236,6 +11236,87 @@
   </si>
   <si>
     <t>Lưu Hà, Kiếp Sát đồng cung tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc</t>
+  </si>
+  <si>
+    <t>Sát Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Mã</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn</t>
+  </si>
+  <si>
+    <t>Hổ Tấu</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng</t>
+  </si>
+  <si>
+    <t>Đào Quyền</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp</t>
   </si>
 </sst>
 </file>
@@ -11277,7 +11358,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11774,10 +11865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3818"/>
+  <dimension ref="A1:B3846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3794" workbookViewId="0">
-      <selection activeCell="K3812" sqref="K3812"/>
+    <sheetView tabSelected="1" topLeftCell="A3803" workbookViewId="0">
+      <selection activeCell="A3820" sqref="A3820:B3846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42313,55 +42404,274 @@
         <v>3736</v>
       </c>
     </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>3763</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="17" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="79"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3819 A3847:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3819 B3847:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3820:A3846">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC660D1-88CA-48A7-ADB9-0CE72F59E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36165DA-2E8E-4D07-9D0A-79B983CD5C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7686" uniqueCount="3764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7756" uniqueCount="3799">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11317,6 +11317,111 @@
   </si>
   <si>
     <t>Hổ Tang Không Kiếp</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình</t>
+  </si>
+  <si>
+    <t>Lương Phá</t>
+  </si>
+  <si>
+    <t>Khôi Việt</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa</t>
+  </si>
+  <si>
+    <t>Cự Kỵ</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt</t>
+  </si>
+  <si>
+    <t>Khoa Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế</t>
+  </si>
+  <si>
+    <t>Tướng Binh</t>
+  </si>
+  <si>
+    <t>Cự Tang</t>
+  </si>
+  <si>
+    <t>Cự Hỏa</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu</t>
   </si>
 </sst>
 </file>
@@ -11358,7 +11463,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11865,10 +11980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3846"/>
+  <dimension ref="A1:B3881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3803" workbookViewId="0">
-      <selection activeCell="A3820" sqref="A3820:B3846"/>
+    <sheetView tabSelected="1" topLeftCell="A3845" workbookViewId="0">
+      <selection activeCell="A3820" sqref="A3820:B3881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42620,57 +42735,337 @@
         <v>3763</v>
       </c>
     </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3876" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3877" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3878" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3879" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3880" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3881" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>3798</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3819 A3847:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3819 A3882:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B3819 B3847:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3819 B3882:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3820:A3846">
+  <conditionalFormatting sqref="A3820:A3881">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C757901-8A24-4ED8-B015-94E7C3C133A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE518280-8299-49E3-9BCD-78FEE26EE5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8422" uniqueCount="4211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8580" uniqueCount="4290">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12658,6 +12658,243 @@
   </si>
   <si>
     <t>L. Đà La tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Kình Đà hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Xương Khúc hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Hoả Linh hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Quang Quý hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tả Hữu hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Khốc Hư hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Hình Riêu hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Thai Toạ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Ấn Phù hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Sát Quyền hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Lộc Mã hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Hổ Tấu hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Quyền hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Lương Phá hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Khôi Việt hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cự Kỵ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Khoa Quyền hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Lộc Quyền hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tướng Binh hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cự Tang hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Cự Hỏa hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu hội chiếu tại Thiên Di</t>
   </si>
 </sst>
 </file>
@@ -12699,117 +12936,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13306,10 +13433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4212"/>
+  <dimension ref="A1:B4292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4152" workbookViewId="0">
-      <selection activeCell="B4152" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4185" workbookViewId="0">
+      <selection activeCell="B4214" sqref="B4214:B4292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47002,32 +47129,664 @@
         <v>4210</v>
       </c>
     </row>
+    <row r="4214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4214" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4215" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4216" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4217" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4218" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4219" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4220" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4221" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4222" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4223" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4224" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4225" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4226" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4227" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4228" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4229" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4230" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4231" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4232" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4233" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4234" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4235" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4236" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4237" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4238" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4239" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4240" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4241" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4242" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4243" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4244" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4245" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4246" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4247" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4248" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4249" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4250" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4252" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4267" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4282" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4288" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4290" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4289</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="30" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="28" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="26" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3819 A3882:A4179 A6725:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3820:A3881">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE518280-8299-49E3-9BCD-78FEE26EE5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F3212-1DDF-44F9-A94F-5E0C4349749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8580" uniqueCount="4290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8790" uniqueCount="4395">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12895,6 +12895,321 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Dương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Âm tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Tham Lang tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Tham Lang tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Cự Môn tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thất Sát tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Phá Quân tại cung đối Mệnh</t>
   </si>
 </sst>
 </file>
@@ -13433,10 +13748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4292"/>
+  <dimension ref="A1:B4398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4185" workbookViewId="0">
-      <selection activeCell="B4214" sqref="B4214:B4292"/>
+    <sheetView tabSelected="1" topLeftCell="A4287" workbookViewId="0">
+      <selection activeCell="B4308" sqref="B4308:B4398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47759,6 +48074,846 @@
       </c>
       <c r="B4292" t="s">
         <v>4289</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4297" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4303" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4304" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4312" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4323" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4327" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4328" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4330" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4342" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4396" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4397" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4398" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>4394</v>
       </c>
     </row>
   </sheetData>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F3212-1DDF-44F9-A94F-5E0C4349749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00D6051-1C4E-4A0C-9242-352F47AB3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8790" uniqueCount="4395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8794" uniqueCount="4398">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13210,6 +13210,15 @@
   </si>
   <si>
     <t>Thất Sát đồng cung Phá Quân tại cung đối Mệnh</t>
+  </si>
+  <si>
+    <t>Bạn là người sinh phùng thời, được may mắn, hên ở xã hội, khi gặp vấn đề gì hay cầm trợ giúp gì luôn có quý nhân hỗ trợ, giúp đỡ.</t>
+  </si>
+  <si>
+    <t>Bạn ra ngoài thường thiện lương, điềm đạm, hay giúp người, từ thiện nên được nhiều người quý mến, kính trọng.</t>
+  </si>
+  <si>
+    <t>Bạn ra ngoài hay có duyên gặp các vị cao nhân, người thầy quý giúp đỡ chỉ dạy.</t>
   </si>
 </sst>
 </file>
@@ -13225,12 +13234,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -13245,13 +13260,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13748,10 +13844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4398"/>
+  <dimension ref="A1:D4398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4287" workbookViewId="0">
-      <selection activeCell="B4308" sqref="B4308:B4398"/>
+    <sheetView tabSelected="1" topLeftCell="A1570" workbookViewId="0">
+      <selection activeCell="A1602" sqref="A1602:XFD1602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26556,23 +26652,35 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1601" t="s">
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1601" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B1601" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1602" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1602" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B1602" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4395</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
         <v>84</v>
       </c>
@@ -26580,7 +26688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1604" t="s">
         <v>85</v>
       </c>
@@ -26588,7 +26696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1605" t="s">
         <v>86</v>
       </c>
@@ -26596,7 +26704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1606" t="s">
         <v>87</v>
       </c>
@@ -26604,7 +26712,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1607" t="s">
         <v>88</v>
       </c>
@@ -26612,7 +26720,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1608" t="s">
         <v>89</v>
       </c>
@@ -26620,7 +26728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1609" t="s">
         <v>90</v>
       </c>
@@ -26628,7 +26736,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1610" t="s">
         <v>91</v>
       </c>
@@ -26636,7 +26744,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1611" t="s">
         <v>92</v>
       </c>
@@ -26644,7 +26752,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
         <v>93</v>
       </c>
@@ -26652,7 +26760,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
         <v>94</v>
       </c>
@@ -26660,7 +26768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1614" t="s">
         <v>95</v>
       </c>
@@ -26668,7 +26776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1615" t="s">
         <v>96</v>
       </c>
@@ -26676,7 +26784,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1616" t="s">
         <v>97</v>
       </c>
@@ -48919,53 +49027,77 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="19" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="15" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3819 A3882:A4179 A6725:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="103"/>
+  <conditionalFormatting sqref="A209:A1600 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3819 A3882:A4179 A6725:A1048576 A1603:A1631">
+    <cfRule type="duplicateValues" dxfId="22" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3820:A3881">
-    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3819 B3882:B4179 B6725:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
+  <conditionalFormatting sqref="B209:B1600 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3819 B3882:B4179 B6725:B1048576 B1603:B1631">
+    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3820:B3881">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1601">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1601">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1601">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1601">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1602">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1602">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1602">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3820:B3881">
+  <conditionalFormatting sqref="B1602">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A11D76F-A8AA-4437-AC06-1E5C1FE42521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E8BE6-C2B7-4504-9E48-11FC75FF8BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8760" uniqueCount="4417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8774" uniqueCount="4446">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13278,6 +13278,93 @@
   </si>
   <si>
     <t>Hay mắc tai nạn, xa nhà rất bất lợi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ra ngoài được nhiều người vị nể, tài lộc dễ kiếm, lời nói được nhiều người tin phục. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay mắc thị phì kiện tụng và tai nạn nguy hiểm, sau này chết ở xa nhà. </t>
+  </si>
+  <si>
+    <t>Được nhiều người kính trọng, tài lộc dễ kiếm.</t>
+  </si>
+  <si>
+    <t>Xa nhà không được lợi ích tuy vậy vẫn được nhiều người mến chuộng</t>
+  </si>
+  <si>
+    <t>Được nhiều người kính trọng, yêu mến, hay lui tới những chỗ quyền qúy.</t>
+  </si>
+  <si>
+    <t>Gặp qúy nhân</t>
+  </si>
+  <si>
+    <t>Nay đây mai đó, chết ở xa nhà.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Thiên Lương đồng cung tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Càng xa nhà càng gặp nhiều may mắn, hay được lui tới chỗ quyền qúy, được nhiều người tôn kính vị nể.</t>
+  </si>
+  <si>
+    <t>Hay gặp qúy nhân, vì có oai nên được nhiều người kính nể, lời nói được nhiều người tin phục, hay lui tới những chỗ có uy quyền.</t>
+  </si>
+  <si>
+    <t>Được nhiều nể sợ và tin phục. Thường gần nơi quyền qúy nhưng không nên ra ngoài nhiều, vì may thường đi liền với rủi, hay mắc tai nạn, sau này chết xa nhà</t>
+  </si>
+  <si>
+    <t>Ra ngoài rất bất lợi. Lúc chết không được ở gần nhà.</t>
+  </si>
+  <si>
+    <t>Nhiều người nể sợ, tài lộc dễ kiếm, nhưng đôi khi mắc tai nạn nguy hiểm.</t>
+  </si>
+  <si>
+    <t>Hay mắc tai nạn nhất là về xe cộ và ác thú, hay gặp những kẻ rình ám hại. Nếu hay xoay sở tiền tài lại càng dễ gặp tai họa, sau này chết ở xa nhà.</t>
+  </si>
+  <si>
+    <t>May đi liền với rủi, người kính trọng cũng có mà ghen ghét muốn hại cũng nhiều. Tai ương đầy rẫy nhưng vẫn ưa thích nay đây mai đó. Sau chết ở xa nhà</t>
+  </si>
+  <si>
+    <t>Hay mắc tai nạn. Sau này chết ở xa nhà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hung họa đầy rẫy, hay mắc thị phi, khó kiếm tiền, luôn gặp những sự phiền lòng. </t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La sáng sủa hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La tối tăm hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dễ kiếm tiền, tuy hay gặp qúy nhân nhưng vẫn bị nhiều người khinh bỉ. </t>
+  </si>
+  <si>
+    <t>Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hỏa Linh hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ra ngoài chẳng được yên chân. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay bị lừa đảo, mưu hại, lúc chết không ở gần nhà. </t>
+  </si>
+  <si>
+    <t>Gặp nhiều qúy nhàn. Thường được gần những bậc quyến cao, chức trọng.</t>
+  </si>
+  <si>
+    <t>Gặp nhiều người giúp đỡ.</t>
+  </si>
+  <si>
+    <t>Lộc Tồn Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Lộc Tồn Hóa Lộc hội chiếu tại Thiên Di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dễ kiếm tiền, luôn luôn gặp may mắn, buôn bán phát tài </t>
   </si>
 </sst>
 </file>
@@ -13331,297 +13418,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14248,10 +14045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:D4378"/>
+  <dimension ref="A1:D4385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4362" workbookViewId="0">
-      <selection activeCell="J4369" sqref="J4369"/>
+    <sheetView tabSelected="1" topLeftCell="A4369" workbookViewId="0">
+      <selection activeCell="F4373" sqref="F4373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21419,12 +21216,12 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>1025</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21451,12 +21248,12 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>1029</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="901" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21547,12 +21344,12 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>1041</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21579,12 +21376,12 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>1045</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="917" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -24747,12 +24544,12 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1312" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>1422</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
@@ -26715,12 +26512,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>39</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.25">
@@ -34591,12 +34388,12 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="2541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2541" s="1" t="s">
         <v>2418</v>
       </c>
       <c r="B2541" s="1" t="s">
-        <v>2418</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2542" spans="1:2" x14ac:dyDescent="0.25">
@@ -34623,28 +34420,28 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="2545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2545" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2545" s="1" t="s">
         <v>2422</v>
       </c>
       <c r="B2545" s="1" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="2546" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2546" s="1" t="s">
         <v>2423</v>
       </c>
       <c r="B2546" s="1" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="2547" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2547" s="1" t="s">
         <v>2424</v>
       </c>
       <c r="B2547" s="1" t="s">
-        <v>2424</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2548" spans="1:2" x14ac:dyDescent="0.25">
@@ -34671,20 +34468,20 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="2551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2551" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2551" s="1" t="s">
         <v>2428</v>
       </c>
       <c r="B2551" s="1" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="2552" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2552" s="1" t="s">
         <v>2429</v>
       </c>
       <c r="B2552" s="1" t="s">
-        <v>2429</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2553" spans="1:2" x14ac:dyDescent="0.25">
@@ -34700,7 +34497,7 @@
         <v>2431</v>
       </c>
       <c r="B2554" s="1" t="s">
-        <v>2431</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="2555" spans="1:2" x14ac:dyDescent="0.25">
@@ -34711,12 +34508,12 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="2556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2556" s="1" t="s">
         <v>2433</v>
       </c>
       <c r="B2556" s="1" t="s">
-        <v>2433</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="2557" spans="1:2" x14ac:dyDescent="0.25">
@@ -34732,7 +34529,7 @@
         <v>2435</v>
       </c>
       <c r="B2558" s="1" t="s">
-        <v>2435</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="2559" spans="1:2" x14ac:dyDescent="0.25">
@@ -34748,7 +34545,7 @@
         <v>2437</v>
       </c>
       <c r="B2560" s="1" t="s">
-        <v>2437</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="2561" spans="1:2" x14ac:dyDescent="0.25">
@@ -34772,15 +34569,15 @@
         <v>2440</v>
       </c>
       <c r="B2563" s="1" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="2564" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2564" s="1" t="s">
         <v>2441</v>
       </c>
       <c r="B2564" s="1" t="s">
-        <v>2441</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="2565" spans="1:2" x14ac:dyDescent="0.25">
@@ -34788,7 +34585,7 @@
         <v>2442</v>
       </c>
       <c r="B2565" s="1" t="s">
-        <v>2442</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="2566" spans="1:2" x14ac:dyDescent="0.25">
@@ -34820,15 +34617,15 @@
         <v>2446</v>
       </c>
       <c r="B2569" s="1" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="2570" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2570" s="1" t="s">
         <v>2447</v>
       </c>
       <c r="B2570" s="1" t="s">
-        <v>2447</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="2571" spans="1:2" x14ac:dyDescent="0.25">
@@ -34836,7 +34633,7 @@
         <v>2448</v>
       </c>
       <c r="B2571" s="1" t="s">
-        <v>2448</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="2572" spans="1:2" x14ac:dyDescent="0.25">
@@ -34868,15 +34665,15 @@
         <v>2452</v>
       </c>
       <c r="B2575" s="1" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="2576" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2576" s="1" t="s">
         <v>2453</v>
       </c>
       <c r="B2576" s="1" t="s">
-        <v>2453</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="2577" spans="1:2" x14ac:dyDescent="0.25">
@@ -34887,12 +34684,12 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="2578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2578" s="1" t="s">
         <v>2455</v>
       </c>
       <c r="B2578" s="1" t="s">
-        <v>2455</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="2579" spans="1:2" x14ac:dyDescent="0.25">
@@ -34908,7 +34705,7 @@
         <v>2457</v>
       </c>
       <c r="B2580" s="1" t="s">
-        <v>2457</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="2581" spans="1:2" x14ac:dyDescent="0.25">
@@ -34919,12 +34716,12 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="2582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2582" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2582" s="1" t="s">
         <v>2459</v>
       </c>
       <c r="B2582" s="1" t="s">
-        <v>2459</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="2583" spans="1:2" x14ac:dyDescent="0.25">
@@ -34935,12 +34732,12 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="2584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2584" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2584" s="1" t="s">
         <v>2461</v>
       </c>
       <c r="B2584" s="1" t="s">
-        <v>2461</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="2585" spans="1:2" x14ac:dyDescent="0.25">
@@ -34956,7 +34753,7 @@
         <v>2463</v>
       </c>
       <c r="B2586" s="1" t="s">
-        <v>2463</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.25">
@@ -34967,12 +34764,12 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="2588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2588" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2588" s="1" t="s">
         <v>2465</v>
       </c>
       <c r="B2588" s="1" t="s">
-        <v>2465</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="2589" spans="1:2" x14ac:dyDescent="0.25">
@@ -34983,12 +34780,12 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="2590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2590" s="1" t="s">
         <v>2467</v>
       </c>
       <c r="B2590" s="1" t="s">
-        <v>2467</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="2591" spans="1:2" x14ac:dyDescent="0.25">
@@ -34999,12 +34796,12 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="2592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2592" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2592" s="1" t="s">
         <v>2469</v>
       </c>
       <c r="B2592" s="1" t="s">
-        <v>2469</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="2593" spans="1:2" x14ac:dyDescent="0.25">
@@ -35015,12 +34812,12 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="2594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2594" s="1" t="s">
         <v>2471</v>
       </c>
       <c r="B2594" s="1" t="s">
-        <v>2471</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="2595" spans="1:2" x14ac:dyDescent="0.25">
@@ -35031,12 +34828,12 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="2596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2596" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2596" s="1" t="s">
         <v>2473</v>
       </c>
       <c r="B2596" s="1" t="s">
-        <v>2473</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="2597" spans="1:2" x14ac:dyDescent="0.25">
@@ -47716,7 +47513,7 @@
         <v>4179</v>
       </c>
       <c r="B4181" s="1" t="s">
-        <v>4179</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="4182" spans="1:2" x14ac:dyDescent="0.25">
@@ -47740,7 +47537,7 @@
         <v>4182</v>
       </c>
       <c r="B4184" s="1" t="s">
-        <v>4182</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="4185" spans="1:2" x14ac:dyDescent="0.25">
@@ -47756,7 +47553,7 @@
         <v>4184</v>
       </c>
       <c r="B4186" s="1" t="s">
-        <v>4184</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4187" spans="1:2" x14ac:dyDescent="0.25">
@@ -48135,12 +47932,12 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4234" s="1" t="s">
         <v>4232</v>
       </c>
       <c r="B4234" s="1" t="s">
-        <v>4232</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
@@ -48207,12 +48004,12 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4243" s="1" t="s">
         <v>4241</v>
       </c>
       <c r="B4243" s="1" t="s">
-        <v>4241</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
@@ -49295,93 +49092,152 @@
         <v>4387</v>
       </c>
     </row>
+    <row r="4379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4379" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B4379" s="1" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4380" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B4380" s="1" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4381" s="1" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B4381" s="1" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B4382" s="1" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B4383" s="1" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B4384" s="1" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B4385" s="1" t="s">
+        <v>4445</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="33" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="31" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="29" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="27" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6687:A1048576 A1769:A1773 A209:A1600 A1:A23 A25:A84 A143 A3406:A3783 A3846:A4143 A1603:A1631">
-    <cfRule type="duplicateValues" dxfId="26" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1774:A3303">
-    <cfRule type="duplicateValues" dxfId="24" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3784:A3845">
-    <cfRule type="duplicateValues" dxfId="23" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6687:B1048576 B1769:B1773 B1:B23 B25:B84 B143 B3406:B3783 B3846:B4143 B1603:B1631 B209:B1600">
+    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1774:B3303">
     <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6687:B1048576 B1769:B1773 B209:B1600 B1:B23 B25:B84 B143 B3406:B3783 B3846:B4143 B1603:B1631">
-    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1774:B3303">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B3784:B3845">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1601">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1601">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1601">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1601">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1602">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1602">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1602">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1602">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1647">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1558">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B9F90F-D2D1-4B12-A9F8-055D2C9D18E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664FDA39-F479-44A1-9BCE-B946984B0B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$B$4383</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$B$4380</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8770" uniqueCount="4479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8764" uniqueCount="4497">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6669,9 +6669,6 @@
     <t>Thiên Sát tọa thủ tại Nô Bộc</t>
   </si>
   <si>
-    <t>Thiên Sát tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
     <t>Thiên Sát tọa thủ tại Tật Ách</t>
   </si>
   <si>
@@ -6771,9 +6768,6 @@
     <t>Thiên Quang tọa thủ tại Nô Bộc</t>
   </si>
   <si>
-    <t>Thiên Quang tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
     <t>Thiên Quang tọa thủ tại Tật Ách</t>
   </si>
   <si>
@@ -6937,9 +6931,6 @@
   </si>
   <si>
     <t>Quý Nhân tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Quý Nhân tọa thủ tại Thiên Di</t>
   </si>
   <si>
     <t>Quý Nhân tọa thủ tại Tật Ách</t>
@@ -13469,6 +13460,69 @@
   </si>
   <si>
     <t>Người ra ngoài khôn ngoan, nhiều được người mến chuộng nhưng khôn quá thì nhiều người ghét, và hãm hại. Người ra ngoài hay đi xa, cưới vợ xa quê.</t>
+  </si>
+  <si>
+    <t>Là người ra ngoài làm ăn vất vả, phải bon chen, đôi khi có sự gây gỗ, bực mình. Đi xa dễ trúng mánh làm ăn, phát dã như lôi nhưng thường không bền, đôi khi còn mất nhiều hơn được. Người có công danh vất vả, làm ăn lúc được lúc không, làm nghề cực nhọc. Người có số ly hương, đi xa, mồ côi, nếu không thì gia đạo cũng ly tán, xa cách. Người ra ngoài hay gặp tai họa, tai nạn bất ngờ, khó mà kiểm soát được, từ bên ngoài đem lại nên cần đặc biệt cẩn thận và tập cách bình tĩnh trước mọi sự việc xảy ra. Chủ về nghiệp duyên, ít được gặp duyên lành, sau này cưới vợ cưới chồng dễ bị yếu tố bên ngoài tác động mà bỏ nhau, không thì cũng dễ yểu thọ.</t>
+  </si>
+  <si>
+    <t>Là người ra ngoài vất vả, dù có gặp thuận lợi cũng không lâu bền, hay gặp tai nạn, trắc trở. Người hay bị các yếu tố ngoại cảnh bên ngoài gây tác động, ảnh hưởng tới tâm lý, suy tư dẫn tới căng thẳng đầu óc, các bệnh về thần kinh, trầm cảm… Người ra ngoài dễ thu hút vong tà đi theo về nhà, người hay lui tới các nơi tâm linh như đền chùa, miếu mạo…</t>
+  </si>
+  <si>
+    <t>Là người ra ngoài không có nơi chốn cố định, đa nghệ. Người ra ngoài hay thích tới những nơi ăn chơi, nhục dục, nhiều mối quan hệ không lành mạnh, tình một đêm. Người ra ngoài hay dễ có ma tà, vong theo về. Người thích đi xem bói toán, đi đền đi chùa…</t>
+  </si>
+  <si>
+    <t>Người ra ngoài khiêm tốn, hay gặp quý nhân giúp đỡ. Người ra ngoài nổi tiếng, nhiều người khác giới hâm mộ. Người hay phải đi xa lập nghiệp</t>
+  </si>
+  <si>
+    <t>Ra ngoài thường cư xử nhẹ nhàng, khiêm tốn, tốt bụng, ôn hòa, gần gũi hay giúp đỡ mọi người chia sẻ những điều tốt đẹp đến cho tất cả mọi người xung quanh nên được mọi người giúp đỡ, yêu mến và trân trọng. Người hay phải đi xa lập nghiệp</t>
+  </si>
+  <si>
+    <t>Là người ra ngoài có oai phong, được người mến chuộng, có quý nhân giúp đỡ. Người ra ngoài hanh thông, gặp nhiều thuận lợi, không phải cạnh tranh gay gắt, cho dù trong môi trường cạnh tranh gay gắt cũng được hanh thông nhàn nhã. Người ra ngoài, đi xa đạt được nhiều thành tựu, quý hiển, hay lui tới những nơi sang trọng, nhàn nhã. Người ra ngoài quan hệ rộng, đông người mến mộ, sẵn sàng giúp đỡ, hay đi nhiều nơi. Người ra ngoài không bao giờ phải làm việc nặng, thường nhẹ nhàng, thanh tao.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người ra ngoài hay được mời, được rủ đi ăn đi uống, nhậu nhẹt nhiều. Ra ngoài, đi xa hay được may mắn, được quà tặng, khó khăn có người giúp đỡ.</t>
+  </si>
+  <si>
+    <t>Người ra ngoài có tài ăn nói lưu loát, thường được nhiều người khác giới để ý, đôi khi có thể ra ngoài được yêu quý bởi vì chính tài ăn nói của mình. Người ra ngoài phải cẩn thận vùng sông nước, nạn thủy tai. Đôi khi là hay phải đi tới những vùng sông nước nhiều khi ra ngoài. Người ra ngoài gặp nhiều kẻ hai mặt, bên ngoài thì ngọt nhẹ, bên trong thì nhiều mưu mô, toan tính, dễ lừa gạt nếu bản thân không cẩn thận.</t>
+  </si>
+  <si>
+    <t>Là người ra ngoài, đi xa hay gặp may mắn, được quý nhân giúp đỡ, thoát nạn.</t>
+  </si>
+  <si>
+    <t>Khi ra ngoài hay gặp chuyện phải tốn tiền, tổn hao nhiều. Người thường phải tha hương lập nghiệp, thay đổi chỗ ở nhiều lần, khó bền lâu được ở một nơi. Khi ra ngoài tốn tiền, thường phải tha hương lập nghiệp, thay đổi chỗ ở nhiều lần.</t>
+  </si>
+  <si>
+    <t>Khi ra ngoài hay gặp chuyện phải tốn tiền, tổn hao. Người thường phải tha hương lập nghiệp, thay đổi chỗ ở nhiều lần, khó lâu bền được ở một nơi.</t>
+  </si>
+  <si>
+    <t>Người ra ngoài dễ dính vào thị phi, kiện tụng. Gặp nhiều người khó tính khắt khe.</t>
+  </si>
+  <si>
+    <t>Bạn khi ra ngoài hay lo toan, làm công việc liên quan tới giấy tờ, văn bản, người ra ngoài hay diễn thuyết, thuyết trình.</t>
+  </si>
+  <si>
+    <t>Người tính mạnh mẽ, cương trực, thích uy quyền nên ra ngoài thường bị đố kỵ, cạnh tranh, ghen ghét, bị ám hại nếu đi với sao xấu. Người thẳng thắn, bộc tính nên thường ưa mềm mỏng, ra ngoài dễ bị người khác lừa.</t>
+  </si>
+  <si>
+    <t>Người hay phải đi lại nhiều, dễ xuất ngoại</t>
+  </si>
+  <si>
+    <t>Người ra ngoài khôn ngoan, cẩn thận, khiêm nhường, gặp nhiều may mắn. Người ra ngoài hay được mời đi ăn, rủ đi chơi xa.</t>
+  </si>
+  <si>
+    <t>Người ra ngoài thật thà, chân chất, hay giúp đỡ người.</t>
+  </si>
+  <si>
+    <t>E chừng có nhiều vấn đề không tốt, Mệnh sẽ có Phục binh là không tốt, cẩn thận số đi tù</t>
+  </si>
+  <si>
+    <t>Người ra ngoài luôn vui vẻ, hiền lành, được nhiều người tin tường và gặp nhiều may mắn. Người ra ngoài có nhiều người hâm mộ, quý mến và giúp đỡ.</t>
+  </si>
+  <si>
+    <t>Người ra ngoài, đi xa hay gặp may mắn, được quý nhân giúp đỡ, thoát nạn.</t>
+  </si>
+  <si>
+    <t>Người ra ngoài, đi xa thường hay gặp may mắn, thuận lợi trong công danh, thi cử, được trao tặng nhiều bằng cấp, khen thưởng. Người thuận lợi trong việc đi xa, có thể đi học xa, đi du học. Người ra ngoài gặp được quý nhân giúp đỡ, ra ngoài lợi ích hơn ở nhà.</t>
   </si>
 </sst>
 </file>
@@ -13504,12 +13558,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14144,10 +14195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D4383"/>
+  <dimension ref="A1:D4380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2027" workbookViewId="0">
-      <selection activeCell="D2037" sqref="D2037"/>
+    <sheetView tabSelected="1" topLeftCell="A1661" workbookViewId="0">
+      <selection activeCell="C1664" sqref="C1664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14168,7 +14219,7 @@
         <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4444</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14176,7 +14227,7 @@
         <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4445</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -14184,7 +14235,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4447</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14192,7 +14243,7 @@
         <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4446</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14200,7 +14251,7 @@
         <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4448</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -14208,7 +14259,7 @@
         <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4449</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -15240,7 +15291,7 @@
         <v>273</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -15280,7 +15331,7 @@
         <v>278</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -15320,7 +15371,7 @@
         <v>283</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -15360,7 +15411,7 @@
         <v>288</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -15400,7 +15451,7 @@
         <v>293</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -15536,7 +15587,7 @@
         <v>310</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>4401</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -15568,7 +15619,7 @@
         <v>314</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>4401</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -15600,7 +15651,7 @@
         <v>318</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>4401</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -15632,7 +15683,7 @@
         <v>322</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>4401</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -15765,10 +15816,10 @@
     </row>
     <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>4404</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21320,7 +21371,7 @@
         <v>1025</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21352,7 +21403,7 @@
         <v>1029</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="901" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21448,7 +21499,7 @@
         <v>1041</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21480,7 +21531,7 @@
         <v>1045</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="917" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -24648,7 +24699,7 @@
         <v>1422</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -26616,7 +26667,7 @@
         <v>39</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>4418</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -26956,31 +27007,31 @@
       </c>
     </row>
     <row r="1601" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1601" s="2" t="s">
+      <c r="A1601" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>4357</v>
+        <v>4354</v>
       </c>
       <c r="C1601" t="s">
-        <v>4358</v>
+        <v>4355</v>
       </c>
       <c r="D1601" t="s">
-        <v>4359</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1602" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1602" s="2" t="s">
+      <c r="A1602" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>4357</v>
+        <v>4354</v>
       </c>
       <c r="C1602" t="s">
-        <v>4358</v>
+        <v>4355</v>
       </c>
       <c r="D1602" t="s">
-        <v>4359</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1603" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -26988,7 +27039,7 @@
         <v>84</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>4450</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1604" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -26996,7 +27047,7 @@
         <v>85</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>4451</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
@@ -27340,7 +27391,7 @@
         <v>128</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>4387</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -27460,7 +27511,7 @@
         <v>1660</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>4452</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1663" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -27468,7 +27519,7 @@
         <v>1661</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>4452</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1664" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -27476,7 +27527,7 @@
         <v>1662</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>4453</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1665" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -27484,7 +27535,7 @@
         <v>1663</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>4453</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1666" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -27572,7 +27623,7 @@
         <v>1674</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>4454</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1677" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -27660,7 +27711,7 @@
         <v>1685</v>
       </c>
       <c r="B1687" s="1" t="s">
-        <v>4454</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1688" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -27756,7 +27807,7 @@
         <v>1697</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>4455</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -27836,7 +27887,7 @@
         <v>1707</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>4456</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1710" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -27924,7 +27975,7 @@
         <v>1718</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>4456</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1721" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28020,7 +28071,7 @@
         <v>1730</v>
       </c>
       <c r="B1732" s="1" t="s">
-        <v>4457</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28100,7 +28151,7 @@
         <v>1740</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>4457</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1743" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28188,7 +28239,7 @@
         <v>1751</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>4458</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1754" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28276,7 +28327,7 @@
         <v>1762</v>
       </c>
       <c r="B1764" s="1" t="s">
-        <v>4459</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1765" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28372,7 +28423,7 @@
         <v>1774</v>
       </c>
       <c r="B1776" s="1" t="s">
-        <v>4460</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1777" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28540,7 +28591,7 @@
         <v>1795</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>4461</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1798" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28636,7 +28687,7 @@
         <v>1807</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>4462</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1810" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28716,7 +28767,7 @@
         <v>1817</v>
       </c>
       <c r="B1819" s="1" t="s">
-        <v>4463</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1820" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28804,7 +28855,7 @@
         <v>1828</v>
       </c>
       <c r="B1830" s="1" t="s">
-        <v>4464</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1831" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28892,7 +28943,7 @@
         <v>1839</v>
       </c>
       <c r="B1841" s="1" t="s">
-        <v>4465</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1842" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -28988,7 +29039,7 @@
         <v>1851</v>
       </c>
       <c r="B1853" s="1" t="s">
-        <v>4466</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1854" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -29156,7 +29207,7 @@
         <v>1872</v>
       </c>
       <c r="B1874" s="1" t="s">
-        <v>4467</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1875" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -29252,7 +29303,7 @@
         <v>1884</v>
       </c>
       <c r="B1886" s="1" t="s">
-        <v>4467</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1887" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -29340,7 +29391,7 @@
         <v>1895</v>
       </c>
       <c r="B1897" s="1" t="s">
-        <v>4469</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1898" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -29428,7 +29479,7 @@
         <v>1906</v>
       </c>
       <c r="B1908" s="1" t="s">
-        <v>4468</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1909" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -29676,7 +29727,7 @@
         <v>1937</v>
       </c>
       <c r="B1939" s="1" t="s">
-        <v>4470</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1940" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -29756,7 +29807,7 @@
         <v>1947</v>
       </c>
       <c r="B1949" s="1" t="s">
-        <v>4470</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1950" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -29844,7 +29895,7 @@
         <v>1958</v>
       </c>
       <c r="B1960" s="1" t="s">
-        <v>4471</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1961" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -29932,7 +29983,7 @@
         <v>1969</v>
       </c>
       <c r="B1971" s="1" t="s">
-        <v>4472</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1972" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30020,7 +30071,7 @@
         <v>1980</v>
       </c>
       <c r="B1982" s="1" t="s">
-        <v>4473</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1983" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30116,7 +30167,7 @@
         <v>1992</v>
       </c>
       <c r="B1994" s="1" t="s">
-        <v>4474</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1995" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30204,7 +30255,7 @@
         <v>2003</v>
       </c>
       <c r="B2005" s="1" t="s">
-        <v>4475</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="2006" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30292,7 +30343,7 @@
         <v>2014</v>
       </c>
       <c r="B2016" s="1" t="s">
-        <v>4476</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="2017" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30380,7 +30431,7 @@
         <v>2025</v>
       </c>
       <c r="B2027" s="1" t="s">
-        <v>4477</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2028" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30460,7 +30511,7 @@
         <v>2035</v>
       </c>
       <c r="B2037" s="1" t="s">
-        <v>4478</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="2038" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30551,12 +30602,12 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="2049" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2049" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A2049" s="1" t="s">
         <v>2047</v>
       </c>
       <c r="B2049" s="1" t="s">
-        <v>2047</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="2050" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30639,12 +30690,12 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="2060" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2060" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A2060" s="1" t="s">
         <v>2058</v>
       </c>
       <c r="B2060" s="1" t="s">
-        <v>2058</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="2061" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30727,12 +30778,12 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="2071" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2071" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2071" s="1" t="s">
         <v>2069</v>
       </c>
       <c r="B2071" s="1" t="s">
-        <v>2069</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2072" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30815,12 +30866,12 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="2082" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2082" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2082" s="1" t="s">
         <v>2080</v>
       </c>
       <c r="B2082" s="1" t="s">
-        <v>2080</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2083" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -30903,12 +30954,12 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2093" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2093" s="1" t="s">
         <v>2091</v>
       </c>
       <c r="B2093" s="1" t="s">
-        <v>2091</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="2094" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -31343,12 +31394,12 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="2148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2148" s="1" t="s">
         <v>2146</v>
       </c>
       <c r="B2148" s="1" t="s">
-        <v>2146</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="2149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -31439,12 +31490,12 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="2160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2160" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2160" s="1" t="s">
         <v>2158</v>
       </c>
       <c r="B2160" s="1" t="s">
-        <v>2158</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="2161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -31519,12 +31570,12 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="2170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2170" s="1" t="s">
         <v>2168</v>
       </c>
       <c r="B2170" s="1" t="s">
-        <v>2168</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="2171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -31615,12 +31666,12 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="2182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2182" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2182" s="1" t="s">
         <v>2180</v>
       </c>
       <c r="B2182" s="1" t="s">
-        <v>2180</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="2183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -31703,12 +31754,12 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="2193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2193" s="1" t="s">
         <v>2191</v>
       </c>
       <c r="B2193" s="1" t="s">
-        <v>2191</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="2194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -31783,12 +31834,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="2203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2203" s="1" t="s">
         <v>2201</v>
       </c>
       <c r="B2203" s="1" t="s">
-        <v>2201</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="2204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -31879,7 +31930,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="2215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2215" s="1" t="s">
         <v>2213</v>
       </c>
@@ -32055,15 +32106,15 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="2237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2237" s="1" t="s">
         <v>2235</v>
       </c>
       <c r="B2237" s="1" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="2238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2238" s="1" t="s">
         <v>2236</v>
       </c>
@@ -32151,7 +32202,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="2249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2249" s="1" t="s">
         <v>2247</v>
       </c>
@@ -32273,194 +32324,194 @@
     </row>
     <row r="2264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2264" s="1" t="s">
-        <v>2262</v>
+        <v>3570</v>
       </c>
       <c r="B2264" s="1" t="s">
-        <v>2262</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2265" s="1" t="s">
-        <v>2263</v>
+        <v>3571</v>
       </c>
       <c r="B2265" s="1" t="s">
-        <v>2263</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="2266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2266" s="1" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B2266" s="1" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="2267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2267" s="1" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B2267" s="1" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2268" s="1" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B2268" s="1" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="2269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2269" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B2269" s="1" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2270" s="1" t="s">
         <v>3576</v>
       </c>
-      <c r="B2269" s="1" t="s">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="2270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2270" s="1" t="s">
-        <v>3577</v>
-      </c>
       <c r="B2270" s="1" t="s">
-        <v>3577</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="2271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2271" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B2271" s="1" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2272" s="1" t="s">
         <v>3578</v>
       </c>
-      <c r="B2271" s="1" t="s">
+      <c r="B2272" s="1" t="s">
         <v>3578</v>
-      </c>
-    </row>
-    <row r="2272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2272" s="1" t="s">
-        <v>3579</v>
-      </c>
-      <c r="B2272" s="1" t="s">
-        <v>3579</v>
       </c>
     </row>
     <row r="2273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2273" s="1" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="B2273" s="1" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="2274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2274" s="1" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="B2274" s="1" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="2275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2275" s="1" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="B2275" s="1" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="2276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2276" s="1" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="B2276" s="1" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="2277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2277" s="1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="B2277" s="1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="2278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2278" s="1" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="B2278" s="1" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="2279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2279" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B2279" s="1" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2280" s="1" t="s">
         <v>3586</v>
       </c>
-      <c r="B2279" s="1" t="s">
-        <v>3586</v>
-      </c>
-    </row>
-    <row r="2280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2280" s="1" t="s">
-        <v>3587</v>
-      </c>
       <c r="B2280" s="1" t="s">
-        <v>3587</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="2281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2281" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B2281" s="1" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2282" s="1" t="s">
         <v>3588</v>
       </c>
-      <c r="B2281" s="1" t="s">
+      <c r="B2282" s="1" t="s">
         <v>3588</v>
-      </c>
-    </row>
-    <row r="2282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2282" s="1" t="s">
-        <v>3589</v>
-      </c>
-      <c r="B2282" s="1" t="s">
-        <v>3589</v>
       </c>
     </row>
     <row r="2283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2283" s="1" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="B2283" s="1" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="2284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2284" s="1" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="B2284" s="1" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2285" s="1" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="B2285" s="1" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="2286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2286" s="1" t="s">
-        <v>3593</v>
+        <v>2284</v>
       </c>
       <c r="B2286" s="1" t="s">
-        <v>3593</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="2287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2287" s="1" t="s">
-        <v>3594</v>
+        <v>2285</v>
       </c>
       <c r="B2287" s="1" t="s">
-        <v>3594</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="2288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -32495,12 +32546,12 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="2292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2292" s="1" t="s">
         <v>2290</v>
       </c>
       <c r="B2292" s="1" t="s">
-        <v>2290</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="2293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -32511,7 +32562,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="2294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2294" s="1" t="s">
         <v>2292</v>
       </c>
@@ -32537,18 +32588,18 @@
     </row>
     <row r="2297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2297" s="1" t="s">
-        <v>2295</v>
+        <v>2273</v>
       </c>
       <c r="B2297" s="1" t="s">
-        <v>2295</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="2298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2298" s="1" t="s">
-        <v>2296</v>
+        <v>2274</v>
       </c>
       <c r="B2298" s="1" t="s">
-        <v>2296</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="2299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -32583,12 +32634,12 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="2303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2303" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2303" s="1" t="s">
         <v>2279</v>
       </c>
       <c r="B2303" s="1" t="s">
-        <v>2279</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="2304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -32599,7 +32650,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="2305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2305" s="1" t="s">
         <v>2281</v>
       </c>
@@ -32625,722 +32676,722 @@
     </row>
     <row r="2308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2308" s="1" t="s">
-        <v>2284</v>
+        <v>3592</v>
       </c>
       <c r="B2308" s="1" t="s">
-        <v>2284</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2309" s="1" t="s">
-        <v>2285</v>
+        <v>3593</v>
       </c>
       <c r="B2309" s="1" t="s">
-        <v>2285</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="2310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2310" s="1" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B2310" s="1" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="2311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2311" s="1" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="B2311" s="1" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2312" s="1" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="B2312" s="1" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="2313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2313" s="1" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="B2313" s="1" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="2314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2314" s="1" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="B2314" s="1" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="2315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2315" s="1" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="B2315" s="1" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="2316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2316" s="1" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="B2316" s="1" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="2317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2317" s="1" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="B2317" s="1" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="2318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2318" s="1" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B2318" s="1" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2319" s="1" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="B2319" s="1" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="2320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2320" s="1" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="B2320" s="1" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="2321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2321" s="1" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="B2321" s="1" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2322" s="1" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="B2322" s="1" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="2323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2323" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B2323" s="1" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2324" s="1" t="s">
         <v>3608</v>
       </c>
-      <c r="B2323" s="1" t="s">
-        <v>3608</v>
-      </c>
-    </row>
-    <row r="2324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2324" s="1" t="s">
-        <v>3609</v>
-      </c>
       <c r="B2324" s="1" t="s">
-        <v>3609</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="2325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2325" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B2325" s="1" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2326" s="1" t="s">
         <v>3610</v>
       </c>
-      <c r="B2325" s="1" t="s">
+      <c r="B2326" s="1" t="s">
         <v>3610</v>
-      </c>
-    </row>
-    <row r="2326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2326" s="1" t="s">
-        <v>3611</v>
-      </c>
-      <c r="B2326" s="1" t="s">
-        <v>3611</v>
       </c>
     </row>
     <row r="2327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2327" s="1" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="B2327" s="1" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="2328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2328" s="1" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="B2328" s="1" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="2329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2329" s="1" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="B2329" s="1" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="2330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2330" s="1" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="B2330" s="1" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2331" s="1" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="B2331" s="1" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="2332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2332" s="1" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="B2332" s="1" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2333" s="1" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="B2333" s="1" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="2334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2334" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B2334" s="1" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2335" s="1" t="s">
         <v>3619</v>
       </c>
-      <c r="B2334" s="1" t="s">
-        <v>3619</v>
-      </c>
-    </row>
-    <row r="2335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2335" s="1" t="s">
-        <v>3620</v>
-      </c>
       <c r="B2335" s="1" t="s">
-        <v>3620</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="2336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2336" s="1" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B2336" s="1" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2337" s="1" t="s">
         <v>3621</v>
       </c>
-      <c r="B2336" s="1" t="s">
+      <c r="B2337" s="1" t="s">
         <v>3621</v>
-      </c>
-    </row>
-    <row r="2337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2337" s="1" t="s">
-        <v>3622</v>
-      </c>
-      <c r="B2337" s="1" t="s">
-        <v>3622</v>
       </c>
     </row>
     <row r="2338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2338" s="1" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="B2338" s="1" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="2339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2339" s="1" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B2339" s="1" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="2340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2340" s="1" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="B2340" s="1" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="2341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2341" s="1" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="B2341" s="1" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="2342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2342" s="1" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="B2342" s="1" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="2343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2343" s="1" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B2343" s="1" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="2344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2344" s="1" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="B2344" s="1" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="2345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2345" s="1" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="B2345" s="1" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="2346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2346" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B2346" s="1" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2347" s="1" t="s">
         <v>3631</v>
       </c>
-      <c r="B2346" s="1" t="s">
-        <v>3631</v>
-      </c>
-    </row>
-    <row r="2347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2347" s="1" t="s">
-        <v>3632</v>
-      </c>
       <c r="B2347" s="1" t="s">
-        <v>3632</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="2348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2348" s="1" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B2348" s="1" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2349" s="1" t="s">
         <v>3633</v>
       </c>
-      <c r="B2348" s="1" t="s">
+      <c r="B2349" s="1" t="s">
         <v>3633</v>
-      </c>
-    </row>
-    <row r="2349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2349" s="1" t="s">
-        <v>3634</v>
-      </c>
-      <c r="B2349" s="1" t="s">
-        <v>3634</v>
       </c>
     </row>
     <row r="2350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2350" s="1" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="B2350" s="1" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2351" s="1" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="B2351" s="1" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="2352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2352" s="1" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="B2352" s="1" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2353" s="1" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="B2353" s="1" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="2354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2354" s="1" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="B2354" s="1" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="2355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2355" s="1" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="B2355" s="1" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="2356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2356" s="1" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="B2356" s="1" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="2357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2357" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B2357" s="1" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2358" s="1" t="s">
         <v>3642</v>
       </c>
-      <c r="B2357" s="1" t="s">
-        <v>3642</v>
-      </c>
-    </row>
-    <row r="2358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2358" s="1" t="s">
-        <v>3643</v>
-      </c>
       <c r="B2358" s="1" t="s">
-        <v>3643</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="2359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2359" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B2359" s="1" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2360" s="1" t="s">
         <v>3644</v>
       </c>
-      <c r="B2359" s="1" t="s">
+      <c r="B2360" s="1" t="s">
         <v>3644</v>
-      </c>
-    </row>
-    <row r="2360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2360" s="1" t="s">
-        <v>3645</v>
-      </c>
-      <c r="B2360" s="1" t="s">
-        <v>3645</v>
       </c>
     </row>
     <row r="2361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2361" s="1" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B2361" s="1" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="2362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2362" s="1" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B2362" s="1" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="2363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2363" s="1" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B2363" s="1" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="2364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2364" s="1" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="B2364" s="1" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="2365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2365" s="1" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B2365" s="1" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="2366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2366" s="1" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B2366" s="1" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2367" s="1" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="B2367" s="1" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="2368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2368" s="1" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="B2368" s="1" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2369" s="1" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B2369" s="1" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="2370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2370" s="1" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B2370" s="1" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="2371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2371" s="1" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="B2371" s="1" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="2372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2372" s="1" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B2372" s="1" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2373" s="1" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="B2373" s="1" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="2374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2374" s="1" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="B2374" s="1" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="2375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2375" s="1" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="B2375" s="1" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2376" s="1" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="B2376" s="1" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="2377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2377" s="1" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="B2377" s="1" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2378" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B2378" s="1" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2379" s="1" t="s">
         <v>3663</v>
       </c>
-      <c r="B2378" s="1" t="s">
-        <v>3663</v>
-      </c>
-    </row>
-    <row r="2379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2379" s="1" t="s">
-        <v>3664</v>
-      </c>
       <c r="B2379" s="1" t="s">
-        <v>3664</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="2380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2380" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B2380" s="1" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2381" s="1" t="s">
         <v>3665</v>
       </c>
-      <c r="B2380" s="1" t="s">
+      <c r="B2381" s="1" t="s">
         <v>3665</v>
-      </c>
-    </row>
-    <row r="2381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2381" s="1" t="s">
-        <v>3666</v>
-      </c>
-      <c r="B2381" s="1" t="s">
-        <v>3666</v>
       </c>
     </row>
     <row r="2382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2382" s="1" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="B2382" s="1" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="2383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2383" s="1" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="B2383" s="1" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="2384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2384" s="1" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="B2384" s="1" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="2385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2385" s="1" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="B2385" s="1" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2386" s="1" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="B2386" s="1" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="2387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2387" s="1" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="B2387" s="1" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2388" s="1" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="B2388" s="1" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="2389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2389" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B2389" s="1" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2390" s="1" t="s">
         <v>3674</v>
       </c>
-      <c r="B2389" s="1" t="s">
-        <v>3674</v>
-      </c>
-    </row>
-    <row r="2390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2390" s="1" t="s">
-        <v>3675</v>
-      </c>
       <c r="B2390" s="1" t="s">
-        <v>3675</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="2391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2391" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B2391" s="1" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2392" s="1" t="s">
         <v>3676</v>
       </c>
-      <c r="B2391" s="1" t="s">
+      <c r="B2392" s="1" t="s">
         <v>3676</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2392" s="1" t="s">
-        <v>3677</v>
-      </c>
-      <c r="B2392" s="1" t="s">
-        <v>3677</v>
       </c>
     </row>
     <row r="2393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2393" s="1" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="B2393" s="1" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="2394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2394" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="B2394" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="2395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2395" s="1" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="B2395" s="1" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="2396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2396" s="1" t="s">
-        <v>3681</v>
+        <v>2262</v>
       </c>
       <c r="B2396" s="1" t="s">
-        <v>3681</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="2397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2397" s="1" t="s">
-        <v>3682</v>
+        <v>2263</v>
       </c>
       <c r="B2397" s="1" t="s">
-        <v>3682</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="2398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33375,12 +33426,12 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="2402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2402" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2402" s="1" t="s">
         <v>2268</v>
       </c>
       <c r="B2402" s="1" t="s">
-        <v>2268</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="2403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33391,7 +33442,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="2404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2404" s="1" t="s">
         <v>2270</v>
       </c>
@@ -33417,18 +33468,18 @@
     </row>
     <row r="2407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2407" s="1" t="s">
-        <v>2273</v>
+        <v>2295</v>
       </c>
       <c r="B2407" s="1" t="s">
-        <v>2273</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="2408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2408" s="1" t="s">
-        <v>2274</v>
+        <v>2296</v>
       </c>
       <c r="B2408" s="1" t="s">
-        <v>2274</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="2409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33479,7 +33530,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="2415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2415" s="1" t="s">
         <v>2303</v>
       </c>
@@ -33505,26 +33556,26 @@
     </row>
     <row r="2418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2418" s="1" t="s">
-        <v>2306</v>
+        <v>3680</v>
       </c>
       <c r="B2418" s="1" t="s">
-        <v>2306</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2419" s="1" t="s">
-        <v>2307</v>
+        <v>3681</v>
       </c>
       <c r="B2419" s="1" t="s">
-        <v>2307</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="2420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2420" s="1" t="s">
-        <v>2308</v>
+        <v>3682</v>
       </c>
       <c r="B2420" s="1" t="s">
-        <v>2308</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="2421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33543,12 +33594,12 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="2423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2423" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2423" s="1" t="s">
         <v>3685</v>
       </c>
       <c r="B2423" s="1" t="s">
-        <v>3685</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="2424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33567,7 +33618,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="2426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2426" s="1" t="s">
         <v>3688</v>
       </c>
@@ -33593,26 +33644,26 @@
     </row>
     <row r="2429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2429" s="1" t="s">
-        <v>3691</v>
+        <v>2306</v>
       </c>
       <c r="B2429" s="1" t="s">
-        <v>3691</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="2430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2430" s="1" t="s">
-        <v>3692</v>
+        <v>2307</v>
       </c>
       <c r="B2430" s="1" t="s">
-        <v>3692</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="2431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2431" s="1" t="s">
-        <v>3693</v>
+        <v>2308</v>
       </c>
       <c r="B2431" s="1" t="s">
-        <v>3693</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="2432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33620,7 +33671,7 @@
         <v>2309</v>
       </c>
       <c r="B2432" s="1" t="s">
-        <v>4362</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="2433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33639,12 +33690,12 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="2435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2435" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2435" s="1" t="s">
         <v>2312</v>
       </c>
       <c r="B2435" s="1" t="s">
-        <v>2312</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="2436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33663,12 +33714,12 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="2438" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2438" s="1" t="s">
         <v>2315</v>
       </c>
       <c r="B2438" s="1" t="s">
-        <v>4360</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="2439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33692,7 +33743,7 @@
         <v>2318</v>
       </c>
       <c r="B2441" s="1" t="s">
-        <v>2318</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33700,7 +33751,7 @@
         <v>2319</v>
       </c>
       <c r="B2442" s="1" t="s">
-        <v>2319</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33716,7 +33767,7 @@
         <v>2321</v>
       </c>
       <c r="B2444" s="1" t="s">
-        <v>4406</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="2445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33724,55 +33775,55 @@
         <v>2322</v>
       </c>
       <c r="B2445" s="1" t="s">
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="2446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2446" s="1" t="s">
         <v>2323</v>
       </c>
       <c r="B2446" s="1" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="2447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2447" s="1" t="s">
         <v>2324</v>
       </c>
       <c r="B2447" s="1" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="2448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2448" s="1" t="s">
         <v>2325</v>
       </c>
       <c r="B2448" s="1" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="2449" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2449" s="1" t="s">
         <v>2326</v>
       </c>
       <c r="B2449" s="1" t="s">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="2450" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2450" s="1" t="s">
         <v>2327</v>
       </c>
       <c r="B2450" s="1" t="s">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="2451" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2451" s="1" t="s">
         <v>2328</v>
       </c>
       <c r="B2451" s="1" t="s">
-        <v>4405</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="2452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33780,7 +33831,7 @@
         <v>2329</v>
       </c>
       <c r="B2452" s="1" t="s">
-        <v>2329</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33788,7 +33839,7 @@
         <v>2330</v>
       </c>
       <c r="B2453" s="1" t="s">
-        <v>2330</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="2454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33804,7 +33855,7 @@
         <v>2332</v>
       </c>
       <c r="B2455" s="1" t="s">
-        <v>4406</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33812,7 +33863,7 @@
         <v>2333</v>
       </c>
       <c r="B2456" s="1" t="s">
-        <v>4402</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="2457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33916,7 +33967,7 @@
         <v>2346</v>
       </c>
       <c r="B2469" s="1" t="s">
-        <v>2346</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="2470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33940,7 +33991,7 @@
         <v>2349</v>
       </c>
       <c r="B2472" s="1" t="s">
-        <v>4390</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="2473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33964,7 +34015,7 @@
         <v>2352</v>
       </c>
       <c r="B2475" s="1" t="s">
-        <v>2352</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="2476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33988,7 +34039,7 @@
         <v>2355</v>
       </c>
       <c r="B2478" s="1" t="s">
-        <v>4390</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="2479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -33999,12 +34050,12 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="2480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2480" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2480" s="1" t="s">
         <v>2357</v>
       </c>
       <c r="B2480" s="1" t="s">
-        <v>2357</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="2481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34012,7 +34063,7 @@
         <v>2358</v>
       </c>
       <c r="B2481" s="1" t="s">
-        <v>2358</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="2482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34020,15 +34071,15 @@
         <v>2359</v>
       </c>
       <c r="B2482" s="1" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="2483" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2483" s="1" t="s">
         <v>2360</v>
       </c>
       <c r="B2483" s="1" t="s">
-        <v>4381</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="2484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34036,7 +34087,7 @@
         <v>2361</v>
       </c>
       <c r="B2484" s="1" t="s">
-        <v>4384</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="2485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34044,15 +34095,15 @@
         <v>2362</v>
       </c>
       <c r="B2485" s="1" t="s">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2486" s="1" t="s">
         <v>2363</v>
       </c>
       <c r="B2486" s="1" t="s">
-        <v>2363</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="2487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34060,7 +34111,7 @@
         <v>2364</v>
       </c>
       <c r="B2487" s="1" t="s">
-        <v>2364</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="2488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34068,15 +34119,15 @@
         <v>2365</v>
       </c>
       <c r="B2488" s="1" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="2489" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2489" s="1" t="s">
         <v>2366</v>
       </c>
       <c r="B2489" s="1" t="s">
-        <v>4382</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="2490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34084,15 +34135,15 @@
         <v>2367</v>
       </c>
       <c r="B2490" s="1" t="s">
-        <v>4384</v>
-      </c>
-    </row>
-    <row r="2491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2491" s="1" t="s">
         <v>2368</v>
       </c>
       <c r="B2491" s="1" t="s">
-        <v>4383</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="2492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34111,12 +34162,12 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="2494" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2494" s="1" t="s">
         <v>2371</v>
       </c>
       <c r="B2494" s="1" t="s">
-        <v>4370</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="2495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34135,12 +34186,12 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="2497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2497" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2497" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="B2497" s="1" t="s">
-        <v>2374</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="2498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34159,12 +34210,12 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="2500" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2500" s="1" t="s">
         <v>2377</v>
       </c>
       <c r="B2500" s="1" t="s">
-        <v>4370</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="2501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34279,52 +34330,52 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="2515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2515" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2515" s="1" t="s">
         <v>2392</v>
       </c>
       <c r="B2515" s="1" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="2516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2516" s="1" t="s">
         <v>2393</v>
       </c>
       <c r="B2516" s="1" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="2517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2517" s="1" t="s">
         <v>2394</v>
       </c>
       <c r="B2517" s="1" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="2518" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2518" s="1" t="s">
         <v>2395</v>
       </c>
       <c r="B2518" s="1" t="s">
-        <v>4408</v>
-      </c>
-    </row>
-    <row r="2519" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2519" s="1" t="s">
         <v>2396</v>
       </c>
       <c r="B2519" s="1" t="s">
-        <v>4408</v>
-      </c>
-    </row>
-    <row r="2520" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2520" s="1" t="s">
         <v>2397</v>
       </c>
       <c r="B2520" s="1" t="s">
-        <v>4408</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="2521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34332,7 +34383,7 @@
         <v>2398</v>
       </c>
       <c r="B2521" s="1" t="s">
-        <v>2398</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="2522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34340,7 +34391,7 @@
         <v>2399</v>
       </c>
       <c r="B2522" s="1" t="s">
-        <v>2399</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="2523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34348,15 +34399,15 @@
         <v>2400</v>
       </c>
       <c r="B2523" s="1" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="2524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2524" s="1" t="s">
         <v>2401</v>
       </c>
       <c r="B2524" s="1" t="s">
-        <v>4407</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="2525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34364,7 +34415,7 @@
         <v>2402</v>
       </c>
       <c r="B2525" s="1" t="s">
-        <v>4407</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="2526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34372,15 +34423,15 @@
         <v>2403</v>
       </c>
       <c r="B2526" s="1" t="s">
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="2527" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2527" s="1" t="s">
         <v>2404</v>
       </c>
       <c r="B2527" s="1" t="s">
-        <v>4413</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="2528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34388,7 +34439,7 @@
         <v>2405</v>
       </c>
       <c r="B2528" s="1" t="s">
-        <v>2405</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="2529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34396,15 +34447,15 @@
         <v>2406</v>
       </c>
       <c r="B2529" s="1" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="2530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2530" s="1" t="s">
         <v>2407</v>
       </c>
       <c r="B2530" s="1" t="s">
-        <v>2407</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="2531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34412,7 +34463,7 @@
         <v>2408</v>
       </c>
       <c r="B2531" s="1" t="s">
-        <v>4412</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="2532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34420,15 +34471,15 @@
         <v>2409</v>
       </c>
       <c r="B2532" s="1" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="2533" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2533" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="B2533" s="1" t="s">
-        <v>4413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="2534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34436,7 +34487,7 @@
         <v>2411</v>
       </c>
       <c r="B2534" s="1" t="s">
-        <v>2411</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="2535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34444,15 +34495,15 @@
         <v>2412</v>
       </c>
       <c r="B2535" s="1" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="2536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2536" s="1" t="s">
         <v>2413</v>
       </c>
       <c r="B2536" s="1" t="s">
-        <v>2413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="2537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34460,7 +34511,7 @@
         <v>2414</v>
       </c>
       <c r="B2537" s="1" t="s">
-        <v>4412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="2538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34471,76 +34522,76 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="2539" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2539" s="1" t="s">
         <v>2416</v>
       </c>
       <c r="B2539" s="1" t="s">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="2540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2540" s="1" t="s">
         <v>2417</v>
       </c>
       <c r="B2540" s="1" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="2541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2541" s="1" t="s">
         <v>2418</v>
       </c>
       <c r="B2541" s="1" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="2542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2542" s="1" t="s">
         <v>2419</v>
       </c>
       <c r="B2542" s="1" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="2543" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2543" s="1" t="s">
         <v>2420</v>
       </c>
       <c r="B2543" s="1" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="2544" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2544" s="1" t="s">
         <v>2421</v>
       </c>
       <c r="B2544" s="1" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="2545" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2545" s="1" t="s">
         <v>2422</v>
       </c>
       <c r="B2545" s="1" t="s">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="2546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2546" s="1" t="s">
         <v>2423</v>
       </c>
       <c r="B2546" s="1" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="2547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2547" s="1" t="s">
         <v>2424</v>
       </c>
       <c r="B2547" s="1" t="s">
-        <v>2424</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="2548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34551,28 +34602,28 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="2549" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2549" s="1" t="s">
         <v>2426</v>
       </c>
       <c r="B2549" s="1" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="2550" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2550" s="1" t="s">
         <v>2427</v>
       </c>
       <c r="B2550" s="1" t="s">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="2551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2551" s="1" t="s">
         <v>2428</v>
       </c>
       <c r="B2551" s="1" t="s">
-        <v>2428</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="2552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34580,7 +34631,7 @@
         <v>2429</v>
       </c>
       <c r="B2552" s="1" t="s">
-        <v>4417</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="2553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34588,15 +34639,15 @@
         <v>2430</v>
       </c>
       <c r="B2553" s="1" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="2554" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2554" s="1" t="s">
         <v>2431</v>
       </c>
       <c r="B2554" s="1" t="s">
-        <v>4418</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="2555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34604,7 +34655,7 @@
         <v>2432</v>
       </c>
       <c r="B2555" s="1" t="s">
-        <v>2432</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="2556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34612,7 +34663,7 @@
         <v>2433</v>
       </c>
       <c r="B2556" s="1" t="s">
-        <v>4417</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="2557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34628,15 +34679,15 @@
         <v>2435</v>
       </c>
       <c r="B2558" s="1" t="s">
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="2559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2559" s="1" t="s">
         <v>2436</v>
       </c>
       <c r="B2559" s="1" t="s">
-        <v>2436</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="2560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34644,7 +34695,7 @@
         <v>2437</v>
       </c>
       <c r="B2560" s="1" t="s">
-        <v>2437</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34652,15 +34703,15 @@
         <v>2438</v>
       </c>
       <c r="B2561" s="1" t="s">
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="2562" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2562" s="1" t="s">
         <v>2439</v>
       </c>
       <c r="B2562" s="1" t="s">
-        <v>4419</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="2563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34668,7 +34719,7 @@
         <v>2440</v>
       </c>
       <c r="B2563" s="1" t="s">
-        <v>4420</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="2564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34676,15 +34727,15 @@
         <v>2441</v>
       </c>
       <c r="B2564" s="1" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="2565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2565" s="1" t="s">
         <v>2442</v>
       </c>
       <c r="B2565" s="1" t="s">
-        <v>2442</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="2566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34692,7 +34743,7 @@
         <v>2443</v>
       </c>
       <c r="B2566" s="1" t="s">
-        <v>2443</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34700,15 +34751,15 @@
         <v>2444</v>
       </c>
       <c r="B2567" s="1" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="2568" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2568" s="1" t="s">
         <v>2445</v>
       </c>
       <c r="B2568" s="1" t="s">
-        <v>4419</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="2569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34716,7 +34767,7 @@
         <v>2446</v>
       </c>
       <c r="B2569" s="1" t="s">
-        <v>4420</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="2570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34724,15 +34775,15 @@
         <v>2447</v>
       </c>
       <c r="B2570" s="1" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="2571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2571" s="1" t="s">
         <v>2448</v>
       </c>
       <c r="B2571" s="1" t="s">
-        <v>2448</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="2572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34743,7 +34794,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="2573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2573" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2573" s="1" t="s">
         <v>2450</v>
       </c>
@@ -34751,12 +34802,12 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="2574" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2574" s="1" t="s">
         <v>2451</v>
       </c>
       <c r="B2574" s="1" t="s">
-        <v>4425</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="2575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34764,23 +34815,23 @@
         <v>2452</v>
       </c>
       <c r="B2575" s="1" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="2576" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2576" s="1" t="s">
         <v>2453</v>
       </c>
       <c r="B2576" s="1" t="s">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="2577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2577" s="1" t="s">
         <v>2454</v>
       </c>
       <c r="B2577" s="1" t="s">
-        <v>2454</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="2578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34788,23 +34839,23 @@
         <v>2455</v>
       </c>
       <c r="B2578" s="1" t="s">
-        <v>4426</v>
-      </c>
-    </row>
-    <row r="2579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2579" s="1" t="s">
         <v>2456</v>
       </c>
       <c r="B2579" s="1" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2580" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2580" s="1" t="s">
         <v>2457</v>
       </c>
       <c r="B2580" s="1" t="s">
-        <v>4425</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="2581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34812,23 +34863,23 @@
         <v>2458</v>
       </c>
       <c r="B2581" s="1" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="2582" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2582" s="1" t="s">
         <v>2459</v>
       </c>
       <c r="B2582" s="1" t="s">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="2583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2583" s="1" t="s">
         <v>2460</v>
       </c>
       <c r="B2583" s="1" t="s">
-        <v>2460</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="2584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34836,71 +34887,71 @@
         <v>2461</v>
       </c>
       <c r="B2584" s="1" t="s">
-        <v>4426</v>
-      </c>
-    </row>
-    <row r="2585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2585" s="1" t="s">
         <v>2462</v>
       </c>
       <c r="B2585" s="1" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2586" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2586" s="1" t="s">
         <v>2463</v>
       </c>
       <c r="B2586" s="1" t="s">
-        <v>4427</v>
-      </c>
-    </row>
-    <row r="2587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2587" s="1" t="s">
         <v>2464</v>
       </c>
       <c r="B2587" s="1" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2588" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2588" s="1" t="s">
         <v>2465</v>
       </c>
       <c r="B2588" s="1" t="s">
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="2589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2589" s="1" t="s">
         <v>2466</v>
       </c>
       <c r="B2589" s="1" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="2590" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2590" s="1" t="s">
         <v>2467</v>
       </c>
       <c r="B2590" s="1" t="s">
-        <v>4429</v>
-      </c>
-    </row>
-    <row r="2591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2591" s="1" t="s">
         <v>2468</v>
       </c>
       <c r="B2591" s="1" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="2592" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2592" s="1" t="s">
         <v>2469</v>
       </c>
       <c r="B2592" s="1" t="s">
-        <v>4427</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="2593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -34911,12 +34962,12 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="2594" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2594" s="1" t="s">
         <v>2471</v>
       </c>
       <c r="B2594" s="1" t="s">
-        <v>4428</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="2595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -36655,12 +36706,12 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="2812" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2812" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2812" s="1" t="s">
         <v>2689</v>
       </c>
       <c r="B2812" s="1" t="s">
-        <v>2689</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="2813" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -36679,12 +36730,12 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="2815" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2815" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2815" s="1" t="s">
         <v>2692</v>
       </c>
       <c r="B2815" s="1" t="s">
-        <v>4411</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="2816" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -36708,7 +36759,7 @@
         <v>2695</v>
       </c>
       <c r="B2818" s="1" t="s">
-        <v>2695</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="2819" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -36732,7 +36783,7 @@
         <v>2698</v>
       </c>
       <c r="B2821" s="1" t="s">
-        <v>4410</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="2822" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -39495,12 +39546,12 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="3167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3167" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3167" s="1" t="s">
         <v>3044</v>
       </c>
       <c r="B3167" s="1" t="s">
-        <v>3044</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="3168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -39519,12 +39570,12 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="3170" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3170" s="1" t="s">
         <v>3047</v>
       </c>
       <c r="B3170" s="1" t="s">
-        <v>4385</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="3171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -43703,31 +43754,31 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="3693" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3693" s="1" t="s">
-        <v>3570</v>
+        <v>3691</v>
       </c>
       <c r="B3693" s="1" t="s">
-        <v>3570</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="3694" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3694" s="1" t="s">
-        <v>3571</v>
+        <v>3692</v>
       </c>
       <c r="B3694" s="1" t="s">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="3695" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3695" s="1" t="s">
-        <v>3572</v>
+        <v>3693</v>
       </c>
       <c r="B3695" s="1" t="s">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="3696" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3696" s="1" t="s">
         <v>3694</v>
       </c>
@@ -43735,7 +43786,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="3697" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3697" s="1" t="s">
         <v>3695</v>
       </c>
@@ -43743,7 +43794,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="3698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3698" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3698" s="1" t="s">
         <v>3696</v>
       </c>
@@ -43759,7 +43810,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="3700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3700" s="1" t="s">
         <v>3698</v>
       </c>
@@ -43775,7 +43826,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="3702" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3702" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3702" s="1" t="s">
         <v>3700</v>
       </c>
@@ -44287,7 +44338,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="3766" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3766" s="1" t="s">
         <v>3764</v>
       </c>
@@ -44311,7 +44362,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="3769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3769" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3769" s="1" t="s">
         <v>3767</v>
       </c>
@@ -44375,7 +44426,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="3777" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3777" s="1" t="s">
         <v>3775</v>
       </c>
@@ -44399,7 +44450,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="3780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3780" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3780" s="1" t="s">
         <v>3778</v>
       </c>
@@ -44463,7 +44514,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="3788" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3788" s="1" t="s">
         <v>3786</v>
       </c>
@@ -44487,7 +44538,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="3791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3791" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3791" s="1" t="s">
         <v>3789</v>
       </c>
@@ -44551,7 +44602,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="3799" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3799" s="1" t="s">
         <v>3797</v>
       </c>
@@ -44575,7 +44626,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="3802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3802" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3802" s="1" t="s">
         <v>3800</v>
       </c>
@@ -44639,7 +44690,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="3810" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3810" s="1" t="s">
         <v>3808</v>
       </c>
@@ -44663,7 +44714,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="3813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3813" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3813" s="1" t="s">
         <v>3811</v>
       </c>
@@ -44727,7 +44778,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="3821" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3821" s="1" t="s">
         <v>3819</v>
       </c>
@@ -44751,7 +44802,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3824" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3824" s="1" t="s">
         <v>3822</v>
       </c>
@@ -44807,7 +44858,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="3831" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3831" s="1" t="s">
         <v>3829</v>
       </c>
@@ -44831,7 +44882,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3834" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3834" s="1" t="s">
         <v>3832</v>
       </c>
@@ -44895,7 +44946,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="3842" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3842" s="1" t="s">
         <v>3840</v>
       </c>
@@ -44919,7 +44970,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3845" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3845" s="1" t="s">
         <v>3843</v>
       </c>
@@ -44991,7 +45042,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="3854" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3854" s="1" t="s">
         <v>3852</v>
       </c>
@@ -45015,7 +45066,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3857" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3857" s="1" t="s">
         <v>3855</v>
       </c>
@@ -45071,7 +45122,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="3864" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3864" s="1" t="s">
         <v>3862</v>
       </c>
@@ -45095,7 +45146,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3867" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3867" s="1" t="s">
         <v>3865</v>
       </c>
@@ -45167,7 +45218,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="3876" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3876" s="1" t="s">
         <v>3874</v>
       </c>
@@ -45191,7 +45242,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3879" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3879" s="1" t="s">
         <v>3877</v>
       </c>
@@ -45255,7 +45306,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="3887" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3887" s="1" t="s">
         <v>3885</v>
       </c>
@@ -45279,7 +45330,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="3890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3890" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3890" s="1" t="s">
         <v>3888</v>
       </c>
@@ -45335,7 +45386,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="3897" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3897" s="1" t="s">
         <v>3895</v>
       </c>
@@ -45359,7 +45410,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="3900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3900" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3900" s="1" t="s">
         <v>3898</v>
       </c>
@@ -45431,7 +45482,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="3909" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3909" s="1" t="s">
         <v>3907</v>
       </c>
@@ -45455,7 +45506,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="3912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3912" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3912" s="1" t="s">
         <v>3910</v>
       </c>
@@ -45615,7 +45666,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="3932" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3932" s="1" t="s">
         <v>3930</v>
       </c>
@@ -45639,7 +45690,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="3935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3935" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3935" s="1" t="s">
         <v>3933</v>
       </c>
@@ -45695,7 +45746,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="3942" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3942" s="1" t="s">
         <v>3940</v>
       </c>
@@ -45719,7 +45770,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="3945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3945" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3945" s="1" t="s">
         <v>3943</v>
       </c>
@@ -45791,7 +45842,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="3954" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3954" s="1" t="s">
         <v>3952</v>
       </c>
@@ -45815,7 +45866,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="3957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3957" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3957" s="1" t="s">
         <v>3955</v>
       </c>
@@ -45879,7 +45930,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="3965" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3965" s="1" t="s">
         <v>3963</v>
       </c>
@@ -45903,7 +45954,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="3968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3968" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3968" s="1" t="s">
         <v>3966</v>
       </c>
@@ -45967,7 +46018,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="3976" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3976" s="1" t="s">
         <v>3974</v>
       </c>
@@ -45991,7 +46042,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="3979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3979" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3979" s="1" t="s">
         <v>3977</v>
       </c>
@@ -46063,7 +46114,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="3988" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3988" s="1" t="s">
         <v>3986</v>
       </c>
@@ -46087,7 +46138,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="3991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3991" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3991" s="1" t="s">
         <v>3989</v>
       </c>
@@ -46151,7 +46202,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="3999" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3999" s="1" t="s">
         <v>3997</v>
       </c>
@@ -46175,7 +46226,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="4002" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4002" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4002" s="1" t="s">
         <v>4000</v>
       </c>
@@ -46239,7 +46290,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="4010" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4010" s="1" t="s">
         <v>4008</v>
       </c>
@@ -46263,7 +46314,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="4013" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4013" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4013" s="1" t="s">
         <v>4011</v>
       </c>
@@ -46327,7 +46378,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="4021" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4021" s="1" t="s">
         <v>4019</v>
       </c>
@@ -46351,7 +46402,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="4024" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4024" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4024" s="1" t="s">
         <v>4022</v>
       </c>
@@ -46415,7 +46466,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="4032" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4032" s="1" t="s">
         <v>4030</v>
       </c>
@@ -46439,7 +46490,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="4035" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4035" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4035" s="1" t="s">
         <v>4033</v>
       </c>
@@ -46503,7 +46554,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="4043" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4043" s="1" t="s">
         <v>4041</v>
       </c>
@@ -46527,7 +46578,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="4046" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4046" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4046" s="1" t="s">
         <v>4044</v>
       </c>
@@ -46599,7 +46650,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="4055" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4055" s="1" t="s">
         <v>4053</v>
       </c>
@@ -46623,7 +46674,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="4058" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4058" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4058" s="1" t="s">
         <v>4056</v>
       </c>
@@ -46687,7 +46738,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="4066" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4066" s="1" t="s">
         <v>4064</v>
       </c>
@@ -46711,7 +46762,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="4069" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4069" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4069" s="1" t="s">
         <v>4067</v>
       </c>
@@ -46783,7 +46834,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="4078" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4078" s="1" t="s">
         <v>4076</v>
       </c>
@@ -46807,7 +46858,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="4081" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4081" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4081" s="1" t="s">
         <v>4079</v>
       </c>
@@ -46871,7 +46922,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="4089" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4089" s="1" t="s">
         <v>4087</v>
       </c>
@@ -46895,7 +46946,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="4092" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4092" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4092" s="1" t="s">
         <v>4090</v>
       </c>
@@ -46967,7 +47018,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="4101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4101" s="1" t="s">
         <v>4099</v>
       </c>
@@ -46991,7 +47042,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="4104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4104" s="1" t="s">
         <v>4102</v>
       </c>
@@ -47047,7 +47098,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="4111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4111" s="1" t="s">
         <v>4109</v>
       </c>
@@ -47071,7 +47122,7 @@
         <v>4111</v>
       </c>
     </row>
-    <row r="4114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4114" s="1" t="s">
         <v>4112</v>
       </c>
@@ -47311,7 +47362,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="4144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4144" s="1" t="s">
         <v>4142</v>
       </c>
@@ -47335,7 +47386,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="4147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4147" s="1" t="s">
         <v>4145</v>
       </c>
@@ -47407,7 +47458,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="4156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4156" s="1" t="s">
         <v>4154</v>
       </c>
@@ -47431,7 +47482,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="4159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4159" s="1" t="s">
         <v>4157</v>
       </c>
@@ -47495,7 +47546,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="4167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4167" s="1" t="s">
         <v>4165</v>
       </c>
@@ -47519,7 +47570,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="4170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4170" s="1" t="s">
         <v>4168</v>
       </c>
@@ -47535,7 +47586,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="4172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4172" s="1" t="s">
         <v>4170</v>
       </c>
@@ -47543,7 +47594,7 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="4173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4173" s="1" t="s">
         <v>4171</v>
       </c>
@@ -47551,7 +47602,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="4174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4174" s="1" t="s">
         <v>4172</v>
       </c>
@@ -47572,7 +47623,7 @@
         <v>4174</v>
       </c>
       <c r="B4176" s="1" t="s">
-        <v>4174</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="4177" spans="1:2" x14ac:dyDescent="0.25">
@@ -47596,7 +47647,7 @@
         <v>4177</v>
       </c>
       <c r="B4179" s="1" t="s">
-        <v>4430</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="4180" spans="1:2" x14ac:dyDescent="0.25">
@@ -47612,7 +47663,7 @@
         <v>4179</v>
       </c>
       <c r="B4181" s="1" t="s">
-        <v>4179</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4182" spans="1:2" x14ac:dyDescent="0.25">
@@ -47620,7 +47671,7 @@
         <v>4180</v>
       </c>
       <c r="B4182" s="1" t="s">
-        <v>4438</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="4183" spans="1:2" x14ac:dyDescent="0.25">
@@ -47636,7 +47687,7 @@
         <v>4182</v>
       </c>
       <c r="B4184" s="1" t="s">
-        <v>4440</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="4185" spans="1:2" x14ac:dyDescent="0.25">
@@ -47679,7 +47730,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="4190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4190" s="1" t="s">
         <v>4188</v>
       </c>
@@ -47687,7 +47738,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="4191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4191" s="1" t="s">
         <v>4189</v>
       </c>
@@ -47727,7 +47778,7 @@
         <v>4193</v>
       </c>
     </row>
-    <row r="4196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4196" s="1" t="s">
         <v>4194</v>
       </c>
@@ -47735,7 +47786,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="4197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4197" s="1" t="s">
         <v>4195</v>
       </c>
@@ -47991,12 +48042,12 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4229" s="1" t="s">
         <v>4227</v>
       </c>
       <c r="B4229" s="1" t="s">
-        <v>4227</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
@@ -48015,12 +48066,12 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="4232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4232" s="1" t="s">
         <v>4230</v>
       </c>
       <c r="B4232" s="1" t="s">
-        <v>4431</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
@@ -48039,7 +48090,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4235" s="1" t="s">
         <v>4233</v>
       </c>
@@ -48068,7 +48119,7 @@
         <v>4236</v>
       </c>
       <c r="B4238" s="1" t="s">
-        <v>4236</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
@@ -48087,12 +48138,12 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="4241" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4241" s="1" t="s">
         <v>4239</v>
       </c>
       <c r="B4241" s="1" t="s">
-        <v>4439</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
@@ -48167,7 +48218,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4251" s="1" t="s">
         <v>4249</v>
       </c>
@@ -48175,7 +48226,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4252" s="1" t="s">
         <v>4250</v>
       </c>
@@ -48183,7 +48234,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4253" s="1" t="s">
         <v>4251</v>
       </c>
@@ -49007,232 +49058,208 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="4356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4356" s="1" t="s">
-        <v>4354</v>
+        <v>4358</v>
       </c>
       <c r="B4356" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4357" s="1" t="s">
-        <v>4355</v>
+        <v>4360</v>
       </c>
       <c r="B4357" s="1" t="s">
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="4358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4358" s="1" t="s">
-        <v>4356</v>
+        <v>4362</v>
       </c>
       <c r="B4358" s="1" t="s">
-        <v>4356</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="4359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4359" s="1" t="s">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="B4359" s="1" t="s">
-        <v>4360</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="4360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4360" s="1" t="s">
-        <v>4363</v>
+        <v>4365</v>
       </c>
       <c r="B4360" s="1" t="s">
-        <v>4364</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="4361" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4361" s="1" t="s">
-        <v>4365</v>
+        <v>4368</v>
       </c>
       <c r="B4361" s="1" t="s">
-        <v>4364</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="4362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4362" s="1" t="s">
-        <v>4366</v>
+        <v>4370</v>
       </c>
       <c r="B4362" s="1" t="s">
-        <v>4367</v>
-      </c>
-    </row>
-    <row r="4363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4363" s="1" t="s">
-        <v>4368</v>
+        <v>4372</v>
       </c>
       <c r="B4363" s="1" t="s">
-        <v>4369</v>
-      </c>
-    </row>
-    <row r="4364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4364" s="1" t="s">
-        <v>4371</v>
+        <v>4374</v>
       </c>
       <c r="B4364" s="1" t="s">
-        <v>4372</v>
-      </c>
-    </row>
-    <row r="4365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4365" s="1" t="s">
-        <v>4373</v>
+        <v>4376</v>
       </c>
       <c r="B4365" s="1" t="s">
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4366" s="1" t="s">
-        <v>4375</v>
+        <v>4383</v>
       </c>
       <c r="B4366" s="1" t="s">
-        <v>4376</v>
-      </c>
-    </row>
-    <row r="4367" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4367" s="1" t="s">
-        <v>4377</v>
+        <v>4385</v>
       </c>
       <c r="B4367" s="1" t="s">
-        <v>4378</v>
-      </c>
-    </row>
-    <row r="4368" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4368" s="1" t="s">
-        <v>4379</v>
+        <v>4388</v>
       </c>
       <c r="B4368" s="1" t="s">
-        <v>4380</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="4369" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4369" s="1" t="s">
-        <v>4386</v>
+        <v>4390</v>
       </c>
       <c r="B4369" s="1" t="s">
-        <v>4385</v>
-      </c>
-    </row>
-    <row r="4370" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4370" s="1" t="s">
-        <v>4388</v>
+        <v>4391</v>
       </c>
       <c r="B4370" s="1" t="s">
-        <v>4389</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="4371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4371" s="1" t="s">
-        <v>4391</v>
+        <v>4393</v>
       </c>
       <c r="B4371" s="1" t="s">
-        <v>4392</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="4372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4372" s="1" t="s">
-        <v>4393</v>
+        <v>4395</v>
       </c>
       <c r="B4372" s="1" t="s">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4373" s="1" t="s">
-        <v>4394</v>
+        <v>4406</v>
       </c>
       <c r="B4373" s="1" t="s">
-        <v>4395</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="4374" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4374" s="1" t="s">
-        <v>4396</v>
+        <v>4419</v>
       </c>
       <c r="B4374" s="1" t="s">
-        <v>4397</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="4375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4375" s="1" t="s">
-        <v>4398</v>
+        <v>4429</v>
       </c>
       <c r="B4375" s="1" t="s">
-        <v>4399</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="4376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4376" s="1" t="s">
-        <v>4409</v>
+        <v>4430</v>
       </c>
       <c r="B4376" s="1" t="s">
-        <v>4385</v>
-      </c>
-    </row>
-    <row r="4377" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4377" s="1" t="s">
-        <v>4422</v>
+        <v>4432</v>
       </c>
       <c r="B4377" s="1" t="s">
-        <v>4423</v>
-      </c>
-    </row>
-    <row r="4378" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4378" s="1" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="B4378" s="1" t="s">
         <v>4434</v>
       </c>
     </row>
-    <row r="4379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4379" s="1" t="s">
-        <v>4433</v>
+        <v>4438</v>
       </c>
       <c r="B4379" s="1" t="s">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="4380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4380" s="1" t="s">
-        <v>4435</v>
+        <v>4439</v>
       </c>
       <c r="B4380" s="1" t="s">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4381" s="1" t="s">
-        <v>4436</v>
-      </c>
-      <c r="B4381" s="1" t="s">
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="4382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4382" s="1" t="s">
-        <v>4441</v>
-      </c>
-      <c r="B4382" s="1" t="s">
-        <v>4441</v>
-      </c>
-    </row>
-    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4383" s="1" t="s">
-        <v>4442</v>
-      </c>
-      <c r="B4383" s="1" t="s">
-        <v>4443</v>
+        <v>4440</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4383" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
+  <autoFilter ref="A1:B4380" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
     <filterColumn colId="0">
       <customFilters>
         <customFilter val="*tại Thiên Di"/>
@@ -49263,10 +49290,10 @@
     <cfRule type="duplicateValues" dxfId="25" priority="8"/>
     <cfRule type="duplicateValues" dxfId="24" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3782:A3843">
+  <conditionalFormatting sqref="A3779:A3840">
     <cfRule type="duplicateValues" dxfId="23" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6685:A1048576 A1769:A1773 A209:A1600 A1:A23 A25:A84 A143 A3404:A3781 A3844:A4141 A1603:A1631">
+  <conditionalFormatting sqref="A6682:A1048576 A1769:A1773 A209:A1600 A1:A23 A25:A84 A143 A3401:A3778 A3841:A4138 A1603:A1631">
     <cfRule type="duplicateValues" dxfId="22" priority="114"/>
     <cfRule type="duplicateValues" dxfId="21" priority="116"/>
   </conditionalFormatting>
@@ -49308,18 +49335,18 @@
   <conditionalFormatting sqref="B1647">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3782:B3843">
+  <conditionalFormatting sqref="B3779:B3840">
     <cfRule type="duplicateValues" dxfId="4" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6685:B1048576 B1769:B1773 B1:B23 B25:B84 B143 B3404:B3781 B3844:B4141 B1603:B1631 B209:B1600">
+  <conditionalFormatting sqref="B6682:B1048576 B1769:B1773 B1:B23 B25:B84 B143 B3401:B3778 B3841:B4138 B1603:B1631 B209:B1600">
     <cfRule type="duplicateValues" dxfId="3" priority="23"/>
     <cfRule type="duplicateValues" dxfId="2" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1774:A3301">
-    <cfRule type="duplicateValues" dxfId="1" priority="174"/>
+  <conditionalFormatting sqref="A1774:A3298">
+    <cfRule type="duplicateValues" dxfId="1" priority="272"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1774:B3301">
-    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
+  <conditionalFormatting sqref="B1774:B3298">
+    <cfRule type="duplicateValues" dxfId="0" priority="274"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4180A6E-0BB7-4C40-82BC-8DF9BE5FC738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4242ACA2-9544-4B9D-A7FB-78761CD54130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="3461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6740" uniqueCount="3520">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -10415,6 +10415,183 @@
   </si>
   <si>
     <t>Người ra ngoài khắt khe, tính toán nên ít bạn, ít người chơi cùng, dễ hay dính thị phi vì bị hiểu lầm. Người ra ngoài thường hay làm lũi một mình.</t>
+  </si>
+  <si>
+    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
+  </si>
+  <si>
+    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
+  </si>
+  <si>
+    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
+  </si>
+  <si>
+    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
+  </si>
+  <si>
+    <t>Là cách cục đại cát, phú quý lâu dài</t>
+  </si>
+  <si>
+    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
+  </si>
+  <si>
+    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
+  </si>
+  <si>
+    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
+  </si>
+  <si>
+    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
+  </si>
+  <si>
+    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
+  </si>
+  <si>
+    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
+  </si>
+  <si>
+    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
+  </si>
+  <si>
+    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
+  </si>
+  <si>
+    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
+  </si>
+  <si>
+    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
+  </si>
+  <si>
+    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
+  </si>
+  <si>
+    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
+  </si>
+  <si>
+    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
+  </si>
+  <si>
+    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
+  </si>
+  <si>
+    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
+  </si>
+  <si>
+    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
+  </si>
+  <si>
+    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
+  </si>
+  <si>
+    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
+  </si>
+  <si>
+    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
+  </si>
+  <si>
+    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
+  </si>
+  <si>
+    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
+  </si>
+  <si>
+    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
+  </si>
+  <si>
+    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
+  </si>
+  <si>
+    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
 </sst>
 </file>
@@ -10450,386 +10627,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11556,10 +11366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:D3332"/>
+  <dimension ref="A1:G3346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2616" workbookViewId="0">
-      <selection activeCell="B2638" sqref="B2638"/>
+    <sheetView tabSelected="1" topLeftCell="A3345" workbookViewId="0">
+      <selection activeCell="A3348" sqref="A3348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38203,7 +38013,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="3329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3329" s="1" t="s">
         <v>3382</v>
       </c>
@@ -38211,7 +38021,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="3330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3330" s="1" t="s">
         <v>3383</v>
       </c>
@@ -38219,7 +38029,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="3331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3331" s="1" t="s">
         <v>3388</v>
       </c>
@@ -38227,118 +38037,380 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="3332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3332" s="1" t="s">
         <v>3389</v>
       </c>
       <c r="B3332" s="1" t="s">
         <v>3390</v>
       </c>
+    </row>
+    <row r="3333" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3333" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B3333" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C3333" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3333" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E3333" s="1"/>
+      <c r="F3333" s="2"/>
+    </row>
+    <row r="3334" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3334" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B3334" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C3334" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D3334" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E3334" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="F3334" s="1" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3335" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B3335" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C3335" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D3335" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E3335" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F3335" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="G3335" s="1" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3336" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B3336" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C3336" s="1"/>
+      <c r="D3336" s="1"/>
+      <c r="E3336" s="1"/>
+      <c r="F3336" s="2"/>
+    </row>
+    <row r="3337" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3337" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B3337" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C3337" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D3337" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E3337" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="F3337" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="G3337" s="1" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3338" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B3338" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C3338" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3338" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E3338" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F3338" s="1" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3339" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B3339" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C3339" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D3339" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E3339" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F3339" s="1" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3340" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B3340" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C3340" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D3340" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E3340" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F3340" s="1" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3341" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B3341" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C3341" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D3341" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E3341" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F3341" s="1"/>
+    </row>
+    <row r="3342" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3342" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B3342" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C3342" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D3342" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E3342" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F3342" s="1" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3343" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B3343" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C3343" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D3343" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E3343" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F3343" s="1"/>
+      <c r="G3343" s="1"/>
+    </row>
+    <row r="3344" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3344" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B3344" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C3344" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D3344" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E3344" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F3344" s="1"/>
+      <c r="G3344" s="1"/>
+    </row>
+    <row r="3345" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3345" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B3345" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C3345" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3345" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E3345" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F3345" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="G3345" s="1" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3346" s="1"/>
+      <c r="D3346" s="1"/>
+      <c r="E3346" s="1"/>
+      <c r="F3346" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D3332" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="43" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="41" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="39" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="37" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1601">
-    <cfRule type="duplicateValues" dxfId="36" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1602">
-    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1774:A2616 A2618:A2628">
+    <cfRule type="duplicateValues" dxfId="33" priority="2206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2617">
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2731:A2792">
-    <cfRule type="duplicateValues" dxfId="32" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5634:A1048576 A1769:A1773 A209:A1600 A1:A23 A25:A84 A143 A2633:A2730 A2793:A3090 A1603:A1631">
-    <cfRule type="duplicateValues" dxfId="31" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B2616 A2618:B1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
+  <conditionalFormatting sqref="A1:B2616 A2618:B3332 A3347:B1048576">
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2617:B2617">
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="21" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="19" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1558">
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1601">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1602">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1647">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1774:B2616 B2618:B2628">
+    <cfRule type="duplicateValues" dxfId="9" priority="2209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2617">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2618">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2731:B2792">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2740">
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3108">
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5634:B1048576 B1769:B1773 B1:B23 B25:B84 B143 B2633:B2730 B2793:B3090 B1603:B1631 B209:B1600">
-    <cfRule type="duplicateValues" dxfId="11" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2740">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3108">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2617:B2617">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2617">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2617">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2618">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1774:A2616 A2618:A2628">
-    <cfRule type="duplicateValues" dxfId="1" priority="2205"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1774:B2616 B2618:B2628">
-    <cfRule type="duplicateValues" dxfId="0" priority="2208"/>
+  <conditionalFormatting sqref="A3333:B3346">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B065D89A-65C3-4107-A4C8-E2697C41533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75E02AE-1B8A-42D1-963A-E0D41022A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$1686</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$1684</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1843">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -4363,12 +4363,6 @@
   </si>
   <si>
     <t>Thiên Đồng và Cự Môn đồng cung tại Mùi</t>
-  </si>
-  <si>
-    <t>Thiên Đồng và Thiên Lương đồng cung tại Dần</t>
-  </si>
-  <si>
-    <t>Thiên Đồng và Thiên Lương đồng cung tại Thân</t>
   </si>
   <si>
     <t>Liêm Trinh và Thiên Phủ đồng cung tại Thìn</t>
@@ -5476,183 +5470,6 @@
     <t>Người ra ngoài khắt khe, tính toán nên ít bạn, ít người chơi cùng, dễ hay dính thị phi vì bị hiểu lầm. Người ra ngoài thường hay làm lũi một mình.</t>
   </si>
   <si>
-    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
-  </si>
-  <si>
-    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
-  </si>
-  <si>
-    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
-  </si>
-  <si>
-    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
-  </si>
-  <si>
-    <t>Là cách cục đại cát, phú quý lâu dài</t>
-  </si>
-  <si>
-    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
-  </si>
-  <si>
-    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
-  </si>
-  <si>
-    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
-  </si>
-  <si>
-    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
-  </si>
-  <si>
-    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
-  </si>
-  <si>
-    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
-  </si>
-  <si>
-    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
-  </si>
-  <si>
-    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
-  </si>
-  <si>
-    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
-  </si>
-  <si>
-    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
-  </si>
-  <si>
-    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
-  </si>
-  <si>
-    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
-  </si>
-  <si>
-    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
-  </si>
-  <si>
-    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
-  </si>
-  <si>
-    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
-  </si>
-  <si>
-    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
-  </si>
-  <si>
-    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
-  </si>
-  <si>
-    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
-  </si>
-  <si>
-    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
-  </si>
-  <si>
-    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
-  </si>
-  <si>
-    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
-  </si>
-  <si>
-    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
-  </si>
-  <si>
-    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
-  </si>
-  <si>
-    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
-  </si>
-  <si>
-    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
-  </si>
-  <si>
-    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
-  </si>
-  <si>
-    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
-  </si>
-  <si>
-    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
-  </si>
-  <si>
-    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
-  </si>
-  <si>
-    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Rời khỏi nhà hay gặp những sự phiền lòng, may ít rủi nhiều, thường có kẻ tiểu nhân theo dõi quấy rối. Sau này chết ở xa nhà. </t>
   </si>
   <si>
@@ -5725,6 +5542,27 @@
   </si>
   <si>
     <t xml:space="preserve">Buôn bán nay đây mai đó, rất phát tài. </t>
+  </si>
+  <si>
+    <t>Rất có lợi về xuất ngoại cầu danh, nên đi xa cầu học</t>
+  </si>
+  <si>
+    <t>Rất có lợi về xuất ngoại cầu danh, nên đi xa cầu học, chủ về xuất ngoại phải bôn ba bận rộn, lao tâm lao lực. Tuy gần quý nhân, cũng chỉ để quý nhân sai bảo.</t>
+  </si>
+  <si>
+    <t>Rất có lợi về xuất ngoại cầu danh, nên đi xa cầu học,chủ về xuất ngoại dễ dàng gần quý nhân chỉ bảo.</t>
+  </si>
+  <si>
+    <t>Chủ về đi xa có thể thành tựu sự nghiệp lớn, lời nói được người khác tín nhiệm. Còn được người ở nơi xa tán thưởng và ủng hộ, có thu hoạch bất ngờ</t>
+  </si>
+  <si>
+    <t>Không nên xa nhà lâu, buôn bán phát tài</t>
+  </si>
+  <si>
+    <t>Thì lại chủ về xuất ngoại phải bôn ba bận rộn, lao tâm lao lực. Tuy gần quý nhân, cũng chỉ để quý nhân sai bảo, lời nói dễ bị bài xích, dễ thị phi.</t>
+  </si>
+  <si>
+    <t>Chủ ra ngoài phải thị phi, dùng nhiều lời nói tranh luận.</t>
   </si>
 </sst>
 </file>
@@ -6059,10 +5897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:G1687"/>
+  <dimension ref="A1:G1685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L186" sqref="L186"/>
+    <sheetView tabSelected="1" topLeftCell="A1440" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1682" sqref="A1682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1880</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -6083,7 +5921,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6091,7 +5929,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -6099,7 +5937,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6107,7 +5945,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6115,7 +5953,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6123,7 +5961,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6987,7 +6825,7 @@
         <v>146</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7027,7 +6865,7 @@
         <v>151</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7067,7 +6905,7 @@
         <v>156</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7107,7 +6945,7 @@
         <v>161</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7147,7 +6985,7 @@
         <v>166</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7267,7 +7105,7 @@
         <v>181</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7299,7 +7137,7 @@
         <v>185</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7331,7 +7169,7 @@
         <v>189</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7363,7 +7201,7 @@
         <v>193</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7488,10 +7326,10 @@
     </row>
     <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -8515,7 +8353,7 @@
         <v>336</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1895</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -8523,7 +8361,7 @@
         <v>337</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1895</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -8531,7 +8369,7 @@
         <v>338</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1896</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -8539,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1896</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -10235,7 +10073,7 @@
         <v>550</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -11707,7 +11545,7 @@
         <v>733</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11739,7 +11577,7 @@
         <v>737</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11819,7 +11657,7 @@
         <v>747</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11851,7 +11689,7 @@
         <v>751</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12179,7 +12017,7 @@
         <v>792</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
@@ -12187,7 +12025,7 @@
         <v>793</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
@@ -12195,7 +12033,7 @@
         <v>794</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
@@ -12203,7 +12041,7 @@
         <v>795</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12227,7 +12065,7 @@
         <v>798</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1890</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
@@ -14603,7 +14441,7 @@
         <v>1081</v>
       </c>
       <c r="B1067" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
@@ -16350,12 +16188,12 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1286" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>19</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
@@ -16371,7 +16209,7 @@
         <v>21</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
@@ -16387,7 +16225,7 @@
         <v>23</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
@@ -16403,7 +16241,7 @@
         <v>25</v>
       </c>
       <c r="B1292" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1293" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16411,13 +16249,13 @@
         <v>26</v>
       </c>
       <c r="B1293" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1293" t="s">
         <v>1659</v>
-      </c>
-      <c r="C1293" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D1293" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="1294" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16425,13 +16263,13 @@
         <v>27</v>
       </c>
       <c r="B1294" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1294" t="s">
         <v>1659</v>
-      </c>
-      <c r="C1294" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D1294" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="1295" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16439,7 +16277,7 @@
         <v>28</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1296" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -16447,7 +16285,7 @@
         <v>29</v>
       </c>
       <c r="B1296" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
@@ -16471,7 +16309,7 @@
         <v>32</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>1878</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
@@ -16479,7 +16317,7 @@
         <v>33</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>1885</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
@@ -16487,7 +16325,7 @@
         <v>34</v>
       </c>
       <c r="B1301" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
@@ -16508,10 +16346,10 @@
     </row>
     <row r="1304" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1304" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B1304" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1305" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16519,7 +16357,7 @@
         <v>1302</v>
       </c>
       <c r="B1305" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1306" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16527,7 +16365,7 @@
         <v>1303</v>
       </c>
       <c r="B1306" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1307" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16535,7 +16373,7 @@
         <v>1304</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1308" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16543,7 +16381,7 @@
         <v>1305</v>
       </c>
       <c r="B1308" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1309" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16551,7 +16389,7 @@
         <v>1306</v>
       </c>
       <c r="B1309" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1310" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16559,7 +16397,7 @@
         <v>1307</v>
       </c>
       <c r="B1310" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1311" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16567,7 +16405,7 @@
         <v>1308</v>
       </c>
       <c r="B1311" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1312" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16575,7 +16413,7 @@
         <v>1309</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1313" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16583,7 +16421,7 @@
         <v>1310</v>
       </c>
       <c r="B1313" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1314" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16591,7 +16429,7 @@
         <v>1311</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1315" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16599,7 +16437,7 @@
         <v>1312</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1316" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16607,7 +16445,7 @@
         <v>1313</v>
       </c>
       <c r="B1316" s="1" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1317" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16615,7 +16453,7 @@
         <v>1314</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1318" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -16623,7 +16461,7 @@
         <v>1315</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16631,7 +16469,7 @@
         <v>1316</v>
       </c>
       <c r="B1319" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1320" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16639,7 +16477,7 @@
         <v>1317</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1321" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16647,7 +16485,7 @@
         <v>1318</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1322" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16655,7 +16493,7 @@
         <v>1319</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1323" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16663,7 +16501,7 @@
         <v>1320</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16671,7 +16509,7 @@
         <v>1321</v>
       </c>
       <c r="B1324" s="1" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16679,7 +16517,7 @@
         <v>1322</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1326" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16687,7 +16525,7 @@
         <v>1323</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1327" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16695,7 +16533,7 @@
         <v>1324</v>
       </c>
       <c r="B1327" s="1" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1328" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16703,7 +16541,7 @@
         <v>1325</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1329" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16711,7 +16549,7 @@
         <v>1326</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -16719,7 +16557,7 @@
         <v>1327</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1331" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16727,7 +16565,7 @@
         <v>1328</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1332" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16735,7 +16573,7 @@
         <v>1329</v>
       </c>
       <c r="B1332" s="1" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1333" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16743,7 +16581,7 @@
         <v>1330</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1334" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16751,7 +16589,7 @@
         <v>1331</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16759,7 +16597,7 @@
         <v>1332</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>1889</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1336" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16767,7 +16605,7 @@
         <v>1333</v>
       </c>
       <c r="B1336" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1337" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16775,7 +16613,7 @@
         <v>1334</v>
       </c>
       <c r="B1337" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1338" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -16783,7 +16621,7 @@
         <v>1335</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1339" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -16791,7 +16629,7 @@
         <v>1336</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16799,7 +16637,7 @@
         <v>1337</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1341" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16807,7 +16645,7 @@
         <v>1338</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1342" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16815,7 +16653,7 @@
         <v>1339</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1343" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16823,7 +16661,7 @@
         <v>1340</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1344" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16831,7 +16669,7 @@
         <v>1341</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1345" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -16839,7 +16677,7 @@
         <v>1342</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1346" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -16847,7 +16685,7 @@
         <v>1343</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1347" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16855,7 +16693,7 @@
         <v>1344</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1348" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16863,7 +16701,7 @@
         <v>1345</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1349" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16871,23 +16709,23 @@
         <v>1346</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1350" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1350" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1351" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1351" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16895,7 +16733,7 @@
         <v>1349</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1353" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16903,55 +16741,55 @@
         <v>1348</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1354" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1354" s="1" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1355" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1356" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1357" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B1357" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1358" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1358" s="1" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B1358" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1359" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B1359" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16959,15 +16797,15 @@
         <v>1347</v>
       </c>
       <c r="B1360" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1361" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1361" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B1361" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
@@ -16975,7 +16813,7 @@
         <v>1350</v>
       </c>
       <c r="B1362" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16983,7 +16821,7 @@
         <v>1351</v>
       </c>
       <c r="B1363" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
@@ -16991,7 +16829,7 @@
         <v>1352</v>
       </c>
       <c r="B1364" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
@@ -16999,7 +16837,7 @@
         <v>1353</v>
       </c>
       <c r="B1365" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1366" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17007,7 +16845,7 @@
         <v>1354</v>
       </c>
       <c r="B1366" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1367" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17015,7 +16853,7 @@
         <v>1355</v>
       </c>
       <c r="B1367" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17023,7 +16861,7 @@
         <v>1356</v>
       </c>
       <c r="B1368" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
@@ -17031,7 +16869,7 @@
         <v>1357</v>
       </c>
       <c r="B1369" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
@@ -17039,7 +16877,7 @@
         <v>1358</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
@@ -17047,7 +16885,7 @@
         <v>1359</v>
       </c>
       <c r="B1371" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
@@ -17055,7 +16893,7 @@
         <v>1360</v>
       </c>
       <c r="B1372" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17063,7 +16901,7 @@
         <v>1361</v>
       </c>
       <c r="B1373" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
@@ -17071,7 +16909,7 @@
         <v>1362</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
@@ -17079,7 +16917,7 @@
         <v>1363</v>
       </c>
       <c r="B1375" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17087,7 +16925,7 @@
         <v>1364</v>
       </c>
       <c r="B1376" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
@@ -17095,7 +16933,7 @@
         <v>1365</v>
       </c>
       <c r="B1377" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
@@ -17103,7 +16941,7 @@
         <v>1366</v>
       </c>
       <c r="B1378" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17111,7 +16949,7 @@
         <v>1367</v>
       </c>
       <c r="B1379" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17119,7 +16957,7 @@
         <v>1368</v>
       </c>
       <c r="B1380" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
@@ -17127,7 +16965,7 @@
         <v>1369</v>
       </c>
       <c r="B1381" s="1" t="s">
-        <v>1886</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
@@ -17135,7 +16973,7 @@
         <v>1370</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>1886</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
@@ -17143,7 +16981,7 @@
         <v>1371</v>
       </c>
       <c r="B1383" s="1" t="s">
-        <v>1886</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
@@ -17151,7 +16989,7 @@
         <v>1372</v>
       </c>
       <c r="B1384" s="1" t="s">
-        <v>1886</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
@@ -17159,7 +16997,7 @@
         <v>1373</v>
       </c>
       <c r="B1385" s="1" t="s">
-        <v>1885</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1386" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17167,7 +17005,7 @@
         <v>1374</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1387" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17175,7 +17013,7 @@
         <v>1375</v>
       </c>
       <c r="B1387" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17183,7 +17021,7 @@
         <v>1376</v>
       </c>
       <c r="B1388" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
@@ -17191,7 +17029,7 @@
         <v>1377</v>
       </c>
       <c r="B1389" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
@@ -17199,7 +17037,7 @@
         <v>1378</v>
       </c>
       <c r="B1390" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
@@ -17207,7 +17045,7 @@
         <v>1379</v>
       </c>
       <c r="B1391" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1392" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17215,7 +17053,7 @@
         <v>1380</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
@@ -17223,7 +17061,7 @@
         <v>1381</v>
       </c>
       <c r="B1393" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
@@ -17231,7 +17069,7 @@
         <v>1382</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1395" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17239,7 +17077,7 @@
         <v>1383</v>
       </c>
       <c r="B1395" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
@@ -17247,7 +17085,7 @@
         <v>1384</v>
       </c>
       <c r="B1396" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
@@ -17255,7 +17093,7 @@
         <v>1385</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1398" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17263,7 +17101,7 @@
         <v>1386</v>
       </c>
       <c r="B1398" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1399" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17271,7 +17109,7 @@
         <v>1387</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1400" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17279,7 +17117,7 @@
         <v>1388</v>
       </c>
       <c r="B1400" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17287,7 +17125,7 @@
         <v>1389</v>
       </c>
       <c r="B1401" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1402" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17295,7 +17133,7 @@
         <v>1390</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17303,7 +17141,7 @@
         <v>1391</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
@@ -17311,7 +17149,7 @@
         <v>1392</v>
       </c>
       <c r="B1404" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1405" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17319,7 +17157,7 @@
         <v>1393</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
@@ -17327,7 +17165,7 @@
         <v>1394</v>
       </c>
       <c r="B1406" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
@@ -17335,7 +17173,7 @@
         <v>1395</v>
       </c>
       <c r="B1407" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
@@ -17343,7 +17181,7 @@
         <v>1396</v>
       </c>
       <c r="B1408" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1409" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17351,7 +17189,7 @@
         <v>1397</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
@@ -17359,7 +17197,7 @@
         <v>1398</v>
       </c>
       <c r="B1410" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1411" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17367,7 +17205,7 @@
         <v>1399</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>1887</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1412" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17375,7 +17213,7 @@
         <v>1400</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>1887</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1413" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17383,7 +17221,7 @@
         <v>1401</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>1887</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1414" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17391,7 +17229,7 @@
         <v>1402</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>1888</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1415" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17399,7 +17237,7 @@
         <v>1403</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
@@ -17407,7 +17245,7 @@
         <v>1404</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
@@ -17415,7 +17253,7 @@
         <v>1405</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1418" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17423,7 +17261,7 @@
         <v>1406</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1419" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17431,7 +17269,7 @@
         <v>1407</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
@@ -17439,7 +17277,7 @@
         <v>1408</v>
       </c>
       <c r="B1420" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1421" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17447,7 +17285,7 @@
         <v>1409</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1422" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17455,7 +17293,7 @@
         <v>1410</v>
       </c>
       <c r="B1422" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
@@ -17463,7 +17301,7 @@
         <v>1411</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17471,7 +17309,7 @@
         <v>1412</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1425" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17479,7 +17317,7 @@
         <v>1413</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1426" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17487,7 +17325,7 @@
         <v>1414</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17495,7 +17333,7 @@
         <v>1415</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1428" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17503,7 +17341,7 @@
         <v>1416</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1429" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17511,7 +17349,7 @@
         <v>1417</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17519,7 +17357,7 @@
         <v>1418</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17527,7 +17365,7 @@
         <v>1419</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1432" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17535,7 +17373,7 @@
         <v>1420</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>1873</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1433" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17543,7 +17381,7 @@
         <v>1421</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>1873</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17551,7 +17389,7 @@
         <v>1422</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1435" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17559,7 +17397,7 @@
         <v>1423</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17567,7 +17405,7 @@
         <v>1424</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17575,7 +17413,7 @@
         <v>1425</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17583,7 +17421,7 @@
         <v>1426</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1439" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17591,7 +17429,7 @@
         <v>1427</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
@@ -17599,7 +17437,7 @@
         <v>1428</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17607,7 +17445,7 @@
         <v>1429</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>1884</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17615,7 +17453,7 @@
         <v>1430</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>1884</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17623,7 +17461,7 @@
         <v>1431</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17631,7 +17469,7 @@
         <v>1432</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>1883</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17639,31 +17477,31 @@
         <v>1433</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
         <v>1434</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
         <v>1435</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
         <v>1436</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>1436</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
@@ -17671,7 +17509,7 @@
         <v>1437</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>1880</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1450" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17679,7 +17517,7 @@
         <v>1438</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>1881</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17687,7 +17525,7 @@
         <v>1439</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>1881</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17695,7 +17533,7 @@
         <v>1440</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>1882</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1453" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17703,7 +17541,7 @@
         <v>1441</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>1882</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1454" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17711,7 +17549,7 @@
         <v>1442</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1455" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17719,7 +17557,7 @@
         <v>1443</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>1879</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1456" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17727,111 +17565,111 @@
         <v>1444</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
         <v>1446</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
         <v>1447</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
         <v>1448</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1461" s="1" t="s">
         <v>1449</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
         <v>1450</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
         <v>1451</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1464" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
         <v>1453</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
         <v>1454</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1467" s="1" t="s">
-        <v>1455</v>
+        <v>1464</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1468" s="1" t="s">
-        <v>1456</v>
+        <v>1465</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
         <v>1466</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>1893</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1470" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17839,7 +17677,7 @@
         <v>1467</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>1893</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
@@ -17850,7 +17688,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1472" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
         <v>1469</v>
       </c>
@@ -17858,7 +17696,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
         <v>1470</v>
       </c>
@@ -17874,7 +17712,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="1475" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1475" s="1" t="s">
         <v>1472</v>
       </c>
@@ -18362,12 +18200,12 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1536" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
         <v>1533</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>1533</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.25">
@@ -18378,31 +18216,31 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="1538" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
         <v>1537</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
         <v>1538</v>
       </c>
@@ -18410,108 +18248,108 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="1542" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
         <v>1539</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
         <v>1541</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
         <v>1544</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
         <v>1547</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
         <v>1548</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>1809</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.25">
@@ -18530,12 +18368,12 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="1557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>1554</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.25">
@@ -18546,12 +18384,12 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="1559" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
         <v>1556</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>1811</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.25">
@@ -18570,44 +18408,44 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
         <v>1559</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
         <v>1560</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
         <v>1561</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
         <v>1562</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
         <v>1563</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>1563</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.25">
@@ -18618,12 +18456,12 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="1568" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>1810</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.25">
@@ -18655,7 +18493,7 @@
         <v>1569</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>1569</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.25">
@@ -18671,7 +18509,7 @@
         <v>1571</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>1732</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.25">
@@ -18679,7 +18517,7 @@
         <v>1572</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>1572</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.25">
@@ -18698,12 +18536,12 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
         <v>1575</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>1575</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
@@ -18711,15 +18549,15 @@
         <v>1576</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
         <v>1577</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>1891</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.25">
@@ -18762,7 +18600,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
         <v>1583</v>
       </c>
@@ -18770,7 +18608,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
         <v>1584</v>
       </c>
@@ -18778,7 +18616,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="1588" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
         <v>1585</v>
       </c>
@@ -18794,7 +18632,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1590" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
         <v>1587</v>
       </c>
@@ -18802,7 +18640,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="1591" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
         <v>1588</v>
       </c>
@@ -18810,12 +18648,12 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="1592" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
         <v>1589</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>1589</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
@@ -18831,7 +18669,7 @@
         <v>1591</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>1894</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.25">
@@ -18847,7 +18685,7 @@
         <v>1593</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>1593</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.25">
@@ -18863,7 +18701,7 @@
         <v>1595</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>1892</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
@@ -19074,12 +18912,12 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1625" s="1" t="s">
         <v>1622</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>1622</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
@@ -19090,12 +18928,12 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="1627" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1627" s="1" t="s">
         <v>1624</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>1733</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
@@ -19122,7 +18960,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1631" s="1" t="s">
         <v>1628</v>
       </c>
@@ -19138,7 +18976,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="1633" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
         <v>1630</v>
       </c>
@@ -19146,12 +18984,12 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
         <v>1631</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>1631</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
@@ -19162,12 +19000,12 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="1636" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>1741</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
@@ -19250,483 +19088,375 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>1644</v>
+        <v>1661</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1648" s="1" t="s">
-        <v>1645</v>
+        <v>1663</v>
       </c>
       <c r="B1648" s="1" t="s">
-        <v>1645</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1649" s="1" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1650" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1651" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1651" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1652" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1652" s="1" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1653" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1653" s="1" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1654" s="1" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1655" s="1" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1656" s="1" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B1656" s="1" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1657" s="1" t="s">
-        <v>1679</v>
+        <v>1686</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1658" s="1" t="s">
-        <v>1681</v>
+        <v>1688</v>
       </c>
       <c r="B1658" s="1" t="s">
-        <v>1682</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1659" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1659" s="1" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1660" s="1" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1661" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1662" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1663" s="1" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1664" s="1" t="s">
-        <v>1698</v>
+        <v>1709</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>1699</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1665" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1665" s="1" t="s">
-        <v>1700</v>
+        <v>1722</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>1701</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1666" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1666" s="1" t="s">
-        <v>1711</v>
+        <v>1732</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>1687</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1667" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1667" s="1" t="s">
-        <v>1724</v>
+        <v>1733</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1668" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1668" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1669" s="1" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="1669" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1669" s="1" t="s">
-        <v>1735</v>
-      </c>
       <c r="B1669" s="1" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1670" s="1" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1671" s="1" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1672" s="1" t="s">
-        <v>1743</v>
+        <v>1652</v>
       </c>
       <c r="B1672" s="1" t="s">
-        <v>1743</v>
-      </c>
+        <v>1820</v>
+      </c>
+      <c r="C1672" s="1"/>
+      <c r="D1672" s="1"/>
+      <c r="E1672" s="1"/>
+      <c r="F1672" s="2"/>
     </row>
     <row r="1673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1673" s="1" t="s">
-        <v>1744</v>
+        <v>1650</v>
       </c>
       <c r="B1673" s="1" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1836</v>
+      </c>
+      <c r="C1673" s="1"/>
+      <c r="D1673" s="1"/>
+      <c r="E1673" s="1"/>
+      <c r="F1673" s="1"/>
+    </row>
+    <row r="1674" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1674" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1674" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C1674" s="1"/>
+      <c r="D1674" s="1"/>
+      <c r="E1674" s="1"/>
+      <c r="F1674" s="1"/>
+      <c r="G1674" s="1"/>
+    </row>
+    <row r="1675" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1675" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1675" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="C1674" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D1674" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="E1674" s="1"/>
-      <c r="F1674" s="2"/>
-    </row>
-    <row r="1675" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1675" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B1675" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C1675" s="1" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D1675" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E1675" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F1675" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C1675" s="1"/>
+      <c r="D1675" s="1"/>
+      <c r="E1675" s="1"/>
+      <c r="F1675" s="2"/>
+    </row>
+    <row r="1676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C1676" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D1676" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E1676" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F1676" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="G1676" s="1" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+      <c r="C1676" s="1"/>
+      <c r="D1676" s="1"/>
+      <c r="E1676" s="1"/>
+      <c r="F1676" s="1"/>
+      <c r="G1676" s="1"/>
+    </row>
+    <row r="1677" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1677" s="1" t="s">
-        <v>1658</v>
+        <v>1644</v>
       </c>
       <c r="B1677" s="1" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="C1677" s="1"/>
       <c r="D1677" s="1"/>
       <c r="E1677" s="1"/>
-      <c r="F1677" s="2"/>
-    </row>
-    <row r="1678" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F1677" s="1"/>
+    </row>
+    <row r="1678" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1678" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1678" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C1678" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D1678" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E1678" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F1678" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G1678" s="1" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1822</v>
+      </c>
+      <c r="C1678" s="1"/>
+      <c r="D1678" s="1"/>
+      <c r="E1678" s="1"/>
+      <c r="F1678" s="1"/>
+    </row>
+    <row r="1679" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1679" s="1" t="s">
         <v>1646</v>
       </c>
       <c r="B1679" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C1679" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D1679" s="1" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E1679" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="F1679" s="1" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1823</v>
+      </c>
+      <c r="C1679" s="1"/>
+      <c r="D1679" s="1"/>
+      <c r="E1679" s="1"/>
+      <c r="F1679" s="1"/>
+    </row>
+    <row r="1680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1680" s="1" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C1680" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D1680" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C1680" s="1"/>
+      <c r="D1680" s="1"/>
+      <c r="E1680" s="1"/>
+      <c r="F1680" s="1"/>
+    </row>
+    <row r="1681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1681" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1681" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1681" s="1"/>
+      <c r="D1681" s="1"/>
+      <c r="E1681" s="1"/>
+      <c r="F1681" s="1"/>
+    </row>
+    <row r="1682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1682" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1682" s="1" t="s">
         <v>1842</v>
       </c>
-      <c r="E1680" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F1680" s="1" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1681" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B1681" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C1681" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D1681" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E1681" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="F1681" s="1" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1682" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B1682" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C1682" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D1682" s="1" t="s">
-        <v>1852</v>
-      </c>
-      <c r="E1682" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="C1682" s="1"/>
+      <c r="D1682" s="1"/>
+      <c r="E1682" s="1"/>
       <c r="F1682" s="1"/>
-    </row>
-    <row r="1683" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="G1682" s="1"/>
+    </row>
+    <row r="1683" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="B1683" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C1683" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D1683" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E1683" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="F1683" s="1" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1723</v>
+      </c>
+      <c r="C1683" s="1"/>
+      <c r="D1683" s="1"/>
+      <c r="E1683" s="1"/>
+      <c r="F1683" s="1"/>
+      <c r="G1683" s="1"/>
+    </row>
+    <row r="1684" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1684" s="1" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="B1684" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C1684" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D1684" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E1684" s="1" t="s">
-        <v>1862</v>
-      </c>
+        <v>1818</v>
+      </c>
+      <c r="C1684" s="1"/>
+      <c r="D1684" s="1"/>
+      <c r="E1684" s="1"/>
       <c r="F1684" s="1"/>
       <c r="G1684" s="1"/>
     </row>
-    <row r="1685" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1685" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B1685" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C1685" s="1" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D1685" s="1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E1685" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="F1685" s="1"/>
-      <c r="G1685" s="1"/>
-    </row>
-    <row r="1686" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1686" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B1686" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C1686" s="1" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D1686" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E1686" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F1686" s="1" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G1686" s="1" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1687" s="1"/>
-      <c r="D1687" s="1"/>
-      <c r="E1687" s="1"/>
-      <c r="F1687" s="2"/>
+    <row r="1685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1685" s="1"/>
+      <c r="D1685" s="1"/>
+      <c r="E1685" s="1"/>
+      <c r="F1685" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1686" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A1:D1684" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
